--- a/WS_tags/tag_3153_list.xlsx
+++ b/WS_tags/tag_3153_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A419"/>
+  <dimension ref="A1:A415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,2092 +387,2072 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>201</v>
+        <v>16475</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>214</v>
+        <v>47956</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>229</v>
+        <v>57805</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>232</v>
+        <v>58348</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>237</v>
+        <v>59393</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>238</v>
+        <v>60690</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>239</v>
+        <v>67761</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>240</v>
+        <v>68641</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>244</v>
+        <v>71223</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>246</v>
+        <v>71481</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>247</v>
+        <v>73321</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>248</v>
+        <v>73515</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>251</v>
+        <v>73605</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>254</v>
+        <v>79310</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>256</v>
+        <v>80438</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>257</v>
+        <v>82154</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>265</v>
+        <v>82847</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>273</v>
+        <v>83130</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>290</v>
+        <v>84802</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>295</v>
+        <v>85871</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>299</v>
+        <v>87552</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>306</v>
+        <v>88079</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>319</v>
+        <v>88290</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>327</v>
+        <v>89650</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>328</v>
+        <v>90123</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>345</v>
+        <v>90616</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>346</v>
+        <v>91002</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>362</v>
+        <v>91391</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>364</v>
+        <v>92216</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>375</v>
+        <v>94470</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>406</v>
+        <v>95981</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>410</v>
+        <v>97388</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>412</v>
+        <v>97460</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>420</v>
+        <v>98249</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>422</v>
+        <v>98324</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>423</v>
+        <v>98353</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>427</v>
+        <v>98485</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>428</v>
+        <v>100565</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>430</v>
+        <v>100925</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>443</v>
+        <v>102931</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>457</v>
+        <v>105181</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>459</v>
+        <v>107558</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>478</v>
+        <v>107997</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>481</v>
+        <v>109089</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>488</v>
+        <v>109969</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>492</v>
+        <v>110171</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>502</v>
+        <v>110358</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>538</v>
+        <v>110587</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>539</v>
+        <v>110640</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>554</v>
+        <v>110849</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>565</v>
+        <v>113051</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>579</v>
+        <v>113625</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>582</v>
+        <v>113911</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>586</v>
+        <v>114305</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>594</v>
+        <v>114843</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>595</v>
+        <v>114985</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>599</v>
+        <v>117874</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>626</v>
+        <v>118119</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>628</v>
+        <v>118300</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>631</v>
+        <v>118871</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>632</v>
+        <v>118919</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>641</v>
+        <v>119411</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>643</v>
+        <v>119678</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>644</v>
+        <v>120693</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>663</v>
+        <v>120724</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>664</v>
+        <v>123131</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>666</v>
+        <v>123826</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>718</v>
+        <v>126812</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>730</v>
+        <v>127071</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>738</v>
+        <v>127398</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>739</v>
+        <v>130010</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>742</v>
+        <v>131704</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>743</v>
+        <v>132968</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>745</v>
+        <v>133270</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>748</v>
+        <v>133508</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>751</v>
+        <v>134199</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>798</v>
+        <v>134682</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>810</v>
+        <v>134941</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>823</v>
+        <v>135080</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>842</v>
+        <v>141319</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>868</v>
+        <v>148017</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>873</v>
+        <v>148430</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>882</v>
+        <v>149214</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>911</v>
+        <v>149284</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>916</v>
+        <v>149446</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>955</v>
+        <v>150364</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>962</v>
+        <v>150537</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>981</v>
+        <v>150807</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>982</v>
+        <v>150850</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>986</v>
+        <v>152152</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>996</v>
+        <v>152500</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>1012</v>
+        <v>153477</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>1020</v>
+        <v>154794</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>1048</v>
+        <v>155048</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>1050</v>
+        <v>155091</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>1056</v>
+        <v>155557</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1059</v>
+        <v>156141</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>1076</v>
+        <v>156770</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>1087</v>
+        <v>157263</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>1124</v>
+        <v>157273</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>1125</v>
+        <v>157434</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>1177</v>
+        <v>158706</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>1180</v>
+        <v>159075</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>1183</v>
+        <v>160316</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>1188</v>
+        <v>162937</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>1192</v>
+        <v>163310</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>1194</v>
+        <v>163649</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>1195</v>
+        <v>163819</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>1219</v>
+        <v>164909</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>1234</v>
+        <v>165517</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>1243</v>
+        <v>165705</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>1259</v>
+        <v>174957</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>1262</v>
+        <v>175075</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>1303</v>
+        <v>175989</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>1308</v>
+        <v>176380</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>1367</v>
+        <v>179680</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>1417</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>1419</v>
+        <v>180021</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>1421</v>
+        <v>181487</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>1469</v>
+        <v>182570</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>1472</v>
+        <v>183152</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>1513</v>
+        <v>183389</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>1516</v>
+        <v>183901</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>1525</v>
+        <v>183936</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>1583</v>
+        <v>184146</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>1590</v>
+        <v>184322</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>1613</v>
+        <v>184615</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>1642</v>
+        <v>185127</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>1663</v>
+        <v>185425</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>1679</v>
+        <v>185538</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>1681</v>
+        <v>185726</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>1683</v>
+        <v>186996</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>1690</v>
+        <v>187879</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>1710</v>
+        <v>189251</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>1741</v>
+        <v>189968</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>1748</v>
+        <v>192079</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>1754</v>
+        <v>192563</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>1773</v>
+        <v>195175</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>1777</v>
+        <v>195700</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>1779</v>
+        <v>196338</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>1784</v>
+        <v>196781</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>1789</v>
+        <v>197042</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1791</v>
+        <v>197366</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>1794</v>
+        <v>198127</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>1797</v>
+        <v>198869</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>1816</v>
+        <v>199458</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>1821</v>
+        <v>200308</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>1844</v>
+        <v>200574</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>1861</v>
+        <v>201774</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>1881</v>
+        <v>203018</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>1882</v>
+        <v>204248</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>1891</v>
+        <v>204541</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>1893</v>
+        <v>205163</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>1921</v>
+        <v>205580</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>1979</v>
+        <v>205878</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>2000</v>
+        <v>207895</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>2023</v>
+        <v>208212</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>2042</v>
+        <v>210705</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>2045</v>
+        <v>211350</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>2052</v>
+        <v>211459</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>2071</v>
+        <v>212456</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>2073</v>
+        <v>212475</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>2109</v>
+        <v>212933</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>2115</v>
+        <v>213209</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>2119</v>
+        <v>214076</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>2123</v>
+        <v>214450</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>2127</v>
+        <v>215641</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>2134</v>
+        <v>215791</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>2149</v>
+        <v>216311</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>2157</v>
+        <v>216623</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>2158</v>
+        <v>220292</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>2161</v>
+        <v>221915</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>2166</v>
+        <v>222194</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>2169</v>
+        <v>222606</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>2173</v>
+        <v>222830</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>2184</v>
+        <v>222876</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>2197</v>
+        <v>223996</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>2198</v>
+        <v>225013</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>2199</v>
+        <v>225198</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>2202</v>
+        <v>226182</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>2222</v>
+        <v>226579</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>2229</v>
+        <v>228390</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>2230</v>
+        <v>230063</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>2231</v>
+        <v>231269</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>2234</v>
+        <v>231387</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>2241</v>
+        <v>232769</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>2264</v>
+        <v>233078</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>2266</v>
+        <v>233560</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>2267</v>
+        <v>233820</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>2270</v>
+        <v>234169</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>2272</v>
+        <v>236607</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>2274</v>
+        <v>236723</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>2275</v>
+        <v>237831</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>2279</v>
+        <v>240231</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>2280</v>
+        <v>241405</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>2281</v>
+        <v>243850</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>2292</v>
+        <v>245697</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>2306</v>
+        <v>247121</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>2308</v>
+        <v>248256</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>2309</v>
+        <v>248710</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>2310</v>
+        <v>249727</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>2313</v>
+        <v>250512</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>2322</v>
+        <v>251385</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>2338</v>
+        <v>252854</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>2339</v>
+        <v>257040</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>2341</v>
+        <v>257794</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>2349</v>
+        <v>258029</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>2353</v>
+        <v>258686</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>2354</v>
+        <v>260223</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>2363</v>
+        <v>261271</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>2365</v>
+        <v>261334</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>2366</v>
+        <v>261888</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>2400</v>
+        <v>262763</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>2402</v>
+        <v>264083</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>2412</v>
+        <v>265298</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>2413</v>
+        <v>269229</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>2416</v>
+        <v>269529</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>2419</v>
+        <v>269989</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>2423</v>
+        <v>272400</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>2425</v>
+        <v>272542</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>2439</v>
+        <v>274811</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>2440</v>
+        <v>275706</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>2442</v>
+        <v>278787</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>2451</v>
+        <v>278897</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>2452</v>
+        <v>281661</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>2453</v>
+        <v>283862</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>2454</v>
+        <v>287205</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>2457</v>
+        <v>287686</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>2463</v>
+        <v>288038</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>2467</v>
+        <v>290950</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>2475</v>
+        <v>291760</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>2489</v>
+        <v>293185</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>2493</v>
+        <v>293359</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>2498</v>
+        <v>294183</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>2525</v>
+        <v>295233</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>2532</v>
+        <v>297277</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>2533</v>
+        <v>300184</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>2546</v>
+        <v>300302</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>2555</v>
+        <v>308523</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>2575</v>
+        <v>308930</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>2590</v>
+        <v>310363</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>2598</v>
+        <v>310541</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>2622</v>
+        <v>311300</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>2623</v>
+        <v>311555</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>2627</v>
+        <v>313737</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>2632</v>
+        <v>314533</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>2638</v>
+        <v>315451</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>2648</v>
+        <v>316460</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>2649</v>
+        <v>316637</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>2658</v>
+        <v>317852</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>2661</v>
+        <v>322955</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>2662</v>
+        <v>323244</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>2672</v>
+        <v>323881</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>2674</v>
+        <v>323904</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>2675</v>
+        <v>326444</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>2705</v>
+        <v>326614</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>2707</v>
+        <v>328975</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>2711</v>
+        <v>332248</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>2716</v>
+        <v>333516</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>2723</v>
+        <v>339455</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>2724</v>
+        <v>341699</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>2743</v>
+        <v>342224</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>2753</v>
+        <v>344612</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>2754</v>
+        <v>346739</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>2759</v>
+        <v>347309</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>2783</v>
+        <v>348994</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>2797</v>
+        <v>353155</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>2812</v>
+        <v>355777</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>2816</v>
+        <v>357540</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>2818</v>
+        <v>359875</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>2822</v>
+        <v>360548</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>2836</v>
+        <v>361190</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>2849</v>
+        <v>361979</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>2850</v>
+        <v>364549</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>2892</v>
+        <v>364820</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>2895</v>
+        <v>367073</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>2903</v>
+        <v>371926</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>2904</v>
+        <v>376162</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>2914</v>
+        <v>377764</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>2916</v>
+        <v>380093</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>2920</v>
+        <v>381218</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>2929</v>
+        <v>381741</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>2930</v>
+        <v>383294</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>2932</v>
+        <v>383474</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>2933</v>
+        <v>386376</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>2937</v>
+        <v>387330</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>2941</v>
+        <v>387809</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>2949</v>
+        <v>387948</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>2994</v>
+        <v>390055</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>3018</v>
+        <v>392592</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>3022</v>
+        <v>393636</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>3033</v>
+        <v>394112</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>3045</v>
+        <v>395595</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>3067</v>
+        <v>401842</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>3088</v>
+        <v>402051</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>3117</v>
+        <v>402166</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>3119</v>
+        <v>404833</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>3121</v>
+        <v>406381</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>3139</v>
+        <v>411195</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>3162</v>
+        <v>411233</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>3195</v>
+        <v>412336</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>3197</v>
+        <v>414757</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>3199</v>
+        <v>431153</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>3209</v>
+        <v>436383</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>3241</v>
+        <v>436431</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>3248</v>
+        <v>445460</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>3260</v>
+        <v>446859</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>3266</v>
+        <v>451238</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>3270</v>
+        <v>451372</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>3295</v>
+        <v>451715</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>3320</v>
+        <v>455329</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>3326</v>
+        <v>457088</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>3347</v>
+        <v>463313</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>3378</v>
+        <v>463586</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>3382</v>
+        <v>464377</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>3407</v>
+        <v>465587</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>3418</v>
+        <v>466511</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>3427</v>
+        <v>467938</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>3428</v>
+        <v>468353</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>3436</v>
+        <v>469385</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>3455</v>
+        <v>472173</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>3462</v>
+        <v>472441</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>3473</v>
+        <v>472585</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>3478</v>
+        <v>474499</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>3507</v>
+        <v>477134</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>3509</v>
+        <v>477264</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>3566</v>
+        <v>479327</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>3576</v>
+        <v>480596</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>3587</v>
+        <v>484079</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>3636</v>
+        <v>486132</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>3637</v>
+        <v>488208</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>3647</v>
+        <v>488619</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>3819</v>
+        <v>490616</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>3856</v>
+        <v>492089</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>3862</v>
+        <v>492195</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>3867</v>
+        <v>492322</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>3915</v>
+        <v>497640</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>3954</v>
+        <v>499502</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>3986</v>
+        <v>500643</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>4003</v>
+        <v>508616</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>4034</v>
+        <v>508914</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>4035</v>
+        <v>510351</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>4047</v>
+        <v>513058</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>4048</v>
+        <v>520164</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>4064</v>
+        <v>524917</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>4096</v>
+        <v>536554</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>4105</v>
+        <v>539076</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>4107</v>
+        <v>539224</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>4109</v>
+        <v>543404</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>4129</v>
+        <v>543726</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>4144</v>
+        <v>546156</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>4159</v>
+        <v>546529</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>4164</v>
+        <v>554415</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>4194</v>
+        <v>557256</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>4205</v>
+        <v>557558</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>4214</v>
+        <v>558830</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>4223</v>
+        <v>566965</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>4228</v>
+        <v>567317</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>4248</v>
+        <v>568108</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>4276</v>
+        <v>569145</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>4375</v>
+        <v>574124</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>4378</v>
+        <v>584131</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>4390</v>
+        <v>584740</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>4391</v>
+        <v>586748</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>4392</v>
+        <v>592753</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>4397</v>
+        <v>597565</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>4401</v>
+        <v>617385</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>4418</v>
+        <v>621142</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>4473</v>
+        <v>623166</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>4476</v>
+        <v>636052</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>4478</v>
+        <v>639052</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>4483</v>
+        <v>651105</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>4558</v>
+        <v>665406</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>4559</v>
+        <v>670912</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>4582</v>
+        <v>672525</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>4596</v>
+        <v>673734</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>4622</v>
+        <v>674821</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>4633</v>
+        <v>680900</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>4645</v>
+        <v>681031</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>4646</v>
+        <v>685316</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>4687</v>
+        <v>689306</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>4708</v>
+        <v>691092</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>4711</v>
+        <v>693092</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>4722</v>
+        <v>693821</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>4723</v>
+        <v>695289</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>4739</v>
+        <v>701390</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>4740</v>
+        <v>702891</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>4755</v>
+        <v>712119</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>4833</v>
+        <v>713689</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>4835</v>
+        <v>715408</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>4857</v>
+        <v>720027</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>4860</v>
+        <v>726641</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>4864</v>
+        <v>726742</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>4870</v>
+        <v>732075</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>4871</v>
+        <v>734183</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>4872</v>
+        <v>738681</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>4875</v>
+        <v>746201</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>4882</v>
+        <v>754975</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>4883</v>
+        <v>773431</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>4967</v>
+        <v>783072</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>4987</v>
+        <v>785808</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>5050</v>
+        <v>792455</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>5110</v>
+        <v>852434</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>5111</v>
+        <v>852483</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>5130</v>
+        <v>856312</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>5156</v>
+        <v>857392</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>5176</v>
+        <v>857977</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>5191</v>
+        <v>891955</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>5248</v>
+        <v>899179</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>5292</v>
+        <v>900587</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>5301</v>
+        <v>902437</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>5308</v>
+        <v>931855</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>5352</v>
+        <v>937438</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>5503</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416">
-        <v>5597</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417">
-        <v>294183</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418">
-        <v>454300</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419">
-        <v>732075</v>
+        <v>947270</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3153_list.xlsx
+++ b/WS_tags/tag_3153_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A415"/>
+  <dimension ref="A1:A678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,2072 +387,3387 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>16475</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>47956</v>
+        <v>16475</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>57805</v>
+        <v>18495</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>58348</v>
+        <v>29774</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>59393</v>
+        <v>47956</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>60690</v>
+        <v>56957</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>67761</v>
+        <v>57805</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>68641</v>
+        <v>58348</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>71223</v>
+        <v>59393</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>71481</v>
+        <v>60690</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>73321</v>
+        <v>67761</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>73515</v>
+        <v>68266</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>73605</v>
+        <v>68641</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>79310</v>
+        <v>71223</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>80438</v>
+        <v>71481</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>82154</v>
+        <v>72009</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>82847</v>
+        <v>73321</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>83130</v>
+        <v>73515</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>84802</v>
+        <v>73605</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>85871</v>
+        <v>75671</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>87552</v>
+        <v>75966</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>88079</v>
+        <v>76431</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>88290</v>
+        <v>79310</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>89650</v>
+        <v>79825</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>90123</v>
+        <v>80438</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>90616</v>
+        <v>82154</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>91002</v>
+        <v>82847</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>91391</v>
+        <v>83130</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>92216</v>
+        <v>83506</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>94470</v>
+        <v>84806</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>95981</v>
+        <v>85494</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>97388</v>
+        <v>85871</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>97460</v>
+        <v>87552</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>98249</v>
+        <v>88079</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>98324</v>
+        <v>88290</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>98353</v>
+        <v>89650</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>98485</v>
+        <v>90123</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>100565</v>
+        <v>90616</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>100925</v>
+        <v>90975</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>102931</v>
+        <v>91002</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>105181</v>
+        <v>91391</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>107558</v>
+        <v>92216</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>107997</v>
+        <v>92816</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>109089</v>
+        <v>93063</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>109969</v>
+        <v>94470</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>110171</v>
+        <v>95631</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>110358</v>
+        <v>95981</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>110587</v>
+        <v>97388</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>110640</v>
+        <v>97460</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>110849</v>
+        <v>98249</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>113051</v>
+        <v>98324</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>113625</v>
+        <v>98353</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>113911</v>
+        <v>100275</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>114305</v>
+        <v>100565</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>114843</v>
+        <v>100925</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>114985</v>
+        <v>102931</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>117874</v>
+        <v>103414</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>118119</v>
+        <v>105181</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>118300</v>
+        <v>107558</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>118871</v>
+        <v>107997</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>118919</v>
+        <v>108170</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>119411</v>
+        <v>109089</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>119678</v>
+        <v>109969</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>120693</v>
+        <v>110358</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>120724</v>
+        <v>110570</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>123131</v>
+        <v>110587</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>123826</v>
+        <v>110640</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>126812</v>
+        <v>110849</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>127071</v>
+        <v>111220</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>127398</v>
+        <v>113051</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>130010</v>
+        <v>113625</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>131704</v>
+        <v>113911</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>132968</v>
+        <v>114305</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>133270</v>
+        <v>114644</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>133508</v>
+        <v>114843</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>134199</v>
+        <v>114985</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>134682</v>
+        <v>117542</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>134941</v>
+        <v>117598</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>135080</v>
+        <v>117874</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>141319</v>
+        <v>118119</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>148017</v>
+        <v>118300</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>148430</v>
+        <v>118871</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>149214</v>
+        <v>118919</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>149284</v>
+        <v>119411</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>149446</v>
+        <v>119678</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>150364</v>
+        <v>120671</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>150537</v>
+        <v>120693</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>150807</v>
+        <v>120724</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>150850</v>
+        <v>120828</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>152152</v>
+        <v>122183</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>152500</v>
+        <v>123131</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>153477</v>
+        <v>123136</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>154794</v>
+        <v>123826</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>155048</v>
+        <v>125437</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>155091</v>
+        <v>126102</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>155557</v>
+        <v>126812</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>156141</v>
+        <v>127071</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>156770</v>
+        <v>127125</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>157263</v>
+        <v>127398</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>157273</v>
+        <v>130010</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>157434</v>
+        <v>130166</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>158706</v>
+        <v>131704</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>159075</v>
+        <v>132968</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>160316</v>
+        <v>133270</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>162937</v>
+        <v>133494</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>163310</v>
+        <v>133508</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>163649</v>
+        <v>134199</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>163819</v>
+        <v>134682</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>164909</v>
+        <v>134941</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>165517</v>
+        <v>139684</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>165705</v>
+        <v>141319</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>174957</v>
+        <v>148017</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>175075</v>
+        <v>148430</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>175989</v>
+        <v>149214</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>176380</v>
+        <v>149284</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>179680</v>
+        <v>149446</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>180000</v>
+        <v>149568</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>180021</v>
+        <v>149648</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>181487</v>
+        <v>149827</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>182570</v>
+        <v>150364</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>183152</v>
+        <v>150537</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>183389</v>
+        <v>150807</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>183901</v>
+        <v>150850</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>183936</v>
+        <v>151017</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>184146</v>
+        <v>151309</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>184322</v>
+        <v>151954</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>184615</v>
+        <v>152089</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>185127</v>
+        <v>152152</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>185425</v>
+        <v>152500</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>185538</v>
+        <v>152985</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>185726</v>
+        <v>153109</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>186996</v>
+        <v>153222</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>187879</v>
+        <v>153477</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>189251</v>
+        <v>153897</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>189968</v>
+        <v>154222</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>192079</v>
+        <v>154794</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>192563</v>
+        <v>155048</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>195175</v>
+        <v>155091</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>195700</v>
+        <v>155219</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>196338</v>
+        <v>155405</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>196781</v>
+        <v>155557</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>197042</v>
+        <v>156218</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>197366</v>
+        <v>156698</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>198127</v>
+        <v>156770</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>198869</v>
+        <v>157273</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>199458</v>
+        <v>157434</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>200308</v>
+        <v>157454</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>200574</v>
+        <v>158706</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>201774</v>
+        <v>159075</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>203018</v>
+        <v>159698</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>204248</v>
+        <v>159982</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>204541</v>
+        <v>160206</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>205163</v>
+        <v>160316</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>205580</v>
+        <v>162564</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>205878</v>
+        <v>162937</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>207895</v>
+        <v>163310</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>208212</v>
+        <v>163649</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>210705</v>
+        <v>163819</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>211350</v>
+        <v>164909</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>211459</v>
+        <v>165517</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>212456</v>
+        <v>165705</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>212475</v>
+        <v>165780</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>212933</v>
+        <v>166126</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>213209</v>
+        <v>166567</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>214076</v>
+        <v>174957</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>214450</v>
+        <v>175075</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>215641</v>
+        <v>175746</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>215791</v>
+        <v>175989</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>216311</v>
+        <v>176380</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>216623</v>
+        <v>177612</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>220292</v>
+        <v>179680</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>221915</v>
+        <v>179803</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>222194</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>222606</v>
+        <v>180021</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>222830</v>
+        <v>181487</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>222876</v>
+        <v>181495</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>223996</v>
+        <v>182570</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>225013</v>
+        <v>182740</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>225198</v>
+        <v>183152</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>226182</v>
+        <v>183389</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>226579</v>
+        <v>183901</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>228390</v>
+        <v>183936</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>230063</v>
+        <v>184146</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>231269</v>
+        <v>184322</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>231387</v>
+        <v>184615</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>232769</v>
+        <v>184654</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>233078</v>
+        <v>185127</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>233560</v>
+        <v>185425</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>233820</v>
+        <v>185538</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>234169</v>
+        <v>185726</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>236607</v>
+        <v>186974</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>236723</v>
+        <v>186996</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>237831</v>
+        <v>187756</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>240231</v>
+        <v>187879</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>241405</v>
+        <v>189251</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>243850</v>
+        <v>189968</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>245697</v>
+        <v>192455</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>247121</v>
+        <v>192563</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>248256</v>
+        <v>193725</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>248710</v>
+        <v>195046</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>249727</v>
+        <v>195175</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>250512</v>
+        <v>195700</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>251385</v>
+        <v>195845</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>252854</v>
+        <v>196338</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>257040</v>
+        <v>196781</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>257794</v>
+        <v>197042</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>258029</v>
+        <v>197366</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>258686</v>
+        <v>198127</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>260223</v>
+        <v>198869</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>261271</v>
+        <v>199143</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>261334</v>
+        <v>199437</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>261888</v>
+        <v>199458</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>262763</v>
+        <v>200574</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>264083</v>
+        <v>201774</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>265298</v>
+        <v>202691</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>269229</v>
+        <v>203018</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>269529</v>
+        <v>203596</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>269989</v>
+        <v>204248</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>272400</v>
+        <v>204541</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>272542</v>
+        <v>204911</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>274811</v>
+        <v>205163</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>275706</v>
+        <v>205580</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>278787</v>
+        <v>205878</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>278897</v>
+        <v>206022</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>281661</v>
+        <v>206232</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>283862</v>
+        <v>207857</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>287205</v>
+        <v>207895</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>287686</v>
+        <v>208212</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>288038</v>
+        <v>209677</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>290950</v>
+        <v>210705</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>291760</v>
+        <v>211350</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>293185</v>
+        <v>211459</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>293359</v>
+        <v>212456</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>294183</v>
+        <v>212475</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>295233</v>
+        <v>212933</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>297277</v>
+        <v>213209</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>300184</v>
+        <v>213839</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>300302</v>
+        <v>214076</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>308523</v>
+        <v>214450</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>308930</v>
+        <v>214509</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>310363</v>
+        <v>215641</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>310541</v>
+        <v>215791</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>311300</v>
+        <v>216311</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>311555</v>
+        <v>216623</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>313737</v>
+        <v>216882</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>314533</v>
+        <v>216979</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>315451</v>
+        <v>217749</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>316460</v>
+        <v>219452</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>316637</v>
+        <v>220292</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>317852</v>
+        <v>221881</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>322955</v>
+        <v>221915</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>323244</v>
+        <v>222194</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>323881</v>
+        <v>222606</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>323904</v>
+        <v>222830</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>326444</v>
+        <v>222876</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>326614</v>
+        <v>223996</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>328975</v>
+        <v>225010</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>332248</v>
+        <v>225013</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>333516</v>
+        <v>225198</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>339455</v>
+        <v>226182</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>341699</v>
+        <v>226579</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>342224</v>
+        <v>228390</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>344612</v>
+        <v>230063</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>346739</v>
+        <v>230119</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>347309</v>
+        <v>231269</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>348994</v>
+        <v>231387</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>353155</v>
+        <v>232769</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>355777</v>
+        <v>233078</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>357540</v>
+        <v>233560</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>359875</v>
+        <v>233820</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>360548</v>
+        <v>233969</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>361190</v>
+        <v>234008</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>361979</v>
+        <v>234169</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>364549</v>
+        <v>235906</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>364820</v>
+        <v>236259</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>367073</v>
+        <v>236607</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>371926</v>
+        <v>236723</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>376162</v>
+        <v>237201</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>377764</v>
+        <v>237831</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>380093</v>
+        <v>239144</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>381218</v>
+        <v>239439</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>381741</v>
+        <v>239734</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>383294</v>
+        <v>240006</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>383474</v>
+        <v>240231</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>386376</v>
+        <v>241405</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>387330</v>
+        <v>241479</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>387809</v>
+        <v>243850</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>387948</v>
+        <v>245530</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>390055</v>
+        <v>245697</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>392592</v>
+        <v>247121</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>393636</v>
+        <v>247869</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>394112</v>
+        <v>248256</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>395595</v>
+        <v>248710</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>401842</v>
+        <v>249727</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>402051</v>
+        <v>250512</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>402166</v>
+        <v>250543</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>404833</v>
+        <v>251385</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>406381</v>
+        <v>252854</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>411195</v>
+        <v>253648</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>411233</v>
+        <v>253888</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>412336</v>
+        <v>257040</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>414757</v>
+        <v>257794</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>431153</v>
+        <v>258029</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>436383</v>
+        <v>258071</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>436431</v>
+        <v>258558</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>445460</v>
+        <v>258686</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>446859</v>
+        <v>261271</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>451238</v>
+        <v>261334</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>451372</v>
+        <v>261888</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>451715</v>
+        <v>262117</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>455329</v>
+        <v>262763</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>457088</v>
+        <v>264083</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>463313</v>
+        <v>265298</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>463586</v>
+        <v>269229</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>464377</v>
+        <v>269529</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>465587</v>
+        <v>269989</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>466511</v>
+        <v>272400</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>467938</v>
+        <v>272542</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>468353</v>
+        <v>274811</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>469385</v>
+        <v>275706</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>472173</v>
+        <v>276602</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>472441</v>
+        <v>278787</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>472585</v>
+        <v>278849</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>474499</v>
+        <v>278897</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>477134</v>
+        <v>281661</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>477264</v>
+        <v>283862</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>479327</v>
+        <v>287152</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>480596</v>
+        <v>287205</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>484079</v>
+        <v>287686</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>486132</v>
+        <v>288038</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>488208</v>
+        <v>290950</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>488619</v>
+        <v>291760</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>490616</v>
+        <v>293185</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>492089</v>
+        <v>293359</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>492195</v>
+        <v>294183</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>492322</v>
+        <v>295233</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>497640</v>
+        <v>297277</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>499502</v>
+        <v>297636</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>500643</v>
+        <v>299745</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>508616</v>
+        <v>300184</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>508914</v>
+        <v>300302</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>510351</v>
+        <v>301974</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>513058</v>
+        <v>304550</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>520164</v>
+        <v>306161</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>524917</v>
+        <v>308523</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>536554</v>
+        <v>308930</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>539076</v>
+        <v>308954</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>539224</v>
+        <v>309585</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>543404</v>
+        <v>310363</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>543726</v>
+        <v>310541</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>546156</v>
+        <v>311300</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>546529</v>
+        <v>311472</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>554415</v>
+        <v>311555</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>557256</v>
+        <v>313001</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>557558</v>
+        <v>313737</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>558830</v>
+        <v>314533</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>566965</v>
+        <v>315451</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>567317</v>
+        <v>316460</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>568108</v>
+        <v>316637</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>569145</v>
+        <v>316760</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>574124</v>
+        <v>317852</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>584131</v>
+        <v>319827</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>584740</v>
+        <v>322955</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>586748</v>
+        <v>323244</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>592753</v>
+        <v>323881</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>597565</v>
+        <v>323904</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>617385</v>
+        <v>326444</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>621142</v>
+        <v>326614</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>623166</v>
+        <v>328975</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>636052</v>
+        <v>329190</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>639052</v>
+        <v>332248</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>651105</v>
+        <v>333516</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>665406</v>
+        <v>333630</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>670912</v>
+        <v>333799</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>672525</v>
+        <v>335873</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>673734</v>
+        <v>336084</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>674821</v>
+        <v>339455</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>680900</v>
+        <v>341699</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>681031</v>
+        <v>342224</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>685316</v>
+        <v>344612</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>689306</v>
+        <v>345937</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>691092</v>
+        <v>346739</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>693092</v>
+        <v>347309</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>693821</v>
+        <v>348449</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>695289</v>
+        <v>348994</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>701390</v>
+        <v>353155</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>702891</v>
+        <v>355777</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>712119</v>
+        <v>356998</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>713689</v>
+        <v>357540</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>715408</v>
+        <v>359875</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>720027</v>
+        <v>360548</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>726641</v>
+        <v>361190</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>726742</v>
+        <v>361561</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>732075</v>
+        <v>361979</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>734183</v>
+        <v>361998</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>738681</v>
+        <v>362751</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>746201</v>
+        <v>364549</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>754975</v>
+        <v>364820</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>773431</v>
+        <v>366180</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>783072</v>
+        <v>366333</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>785808</v>
+        <v>367073</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>792455</v>
+        <v>367155</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>852434</v>
+        <v>371926</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>852483</v>
+        <v>377274</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>856312</v>
+        <v>377764</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>857392</v>
+        <v>378331</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>857977</v>
+        <v>380093</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>891955</v>
+        <v>381218</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>899179</v>
+        <v>381741</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>900587</v>
+        <v>381807</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>902437</v>
+        <v>383294</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>931855</v>
+        <v>383474</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>937438</v>
+        <v>383772</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
+        <v>383942</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>386376</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>386809</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>387330</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>387809</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>387948</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>388142</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>390055</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>392262</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>392566</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>392592</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>392780</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>393636</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>394112</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>394335</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>395092</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>395595</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>398118</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>398120</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>398860</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>400914</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>400975</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>401482</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>401842</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>402051</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>402166</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>403312</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>406381</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>407016</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>410411</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>411195</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>411233</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>412336</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>414757</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>417799</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>430806</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>431153</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>436240</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>436335</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>436383</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>436431</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>445460</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>446859</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>451238</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>451372</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>451554</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>451715</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>451822</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>455329</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>455566</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>457088</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>463313</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>464377</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>464613</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>465587</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>466072</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>466511</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>467938</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>467997</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>468168</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>468353</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>468624</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>469385</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>472173</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>472441</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>472484</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>472585</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>473012</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>473193</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>473412</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>474499</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>475553</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>477134</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>477264</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>479327</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>480596</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>481615</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>484079</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>486132</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>488208</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>488619</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>490616</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>492089</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>492195</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>492322</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>493252</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>495287</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>497640</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>499502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>499822</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>500643</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>502748</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>502961</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>504344</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>505334</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>505905</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>506390</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>506588</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>508616</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>508914</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>510351</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>513058</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>515990</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>516170</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>520164</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>524917</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>527413</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>528789</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>534708</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>536554</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>539076</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>539224</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>541349</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>543404</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>543726</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>546156</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>546529</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>548517</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>551374</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>552367</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>554415</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>554563</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>557256</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>557558</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>558830</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>562742</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>566965</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>568108</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>569145</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>574124</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>582269</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>584131</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>584740</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>586055</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>586748</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>589602</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>592753</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>597565</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>600029</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>604556</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>606971</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>609581</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>617385</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>621142</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>623166</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>634725</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>636052</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>639052</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>640953</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>651105</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>651667</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>651928</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>653169</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>654499</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>656482</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>660497</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>661743</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>665316</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>665406</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574">
+        <v>669070</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575">
+        <v>670912</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576">
+        <v>671177</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577">
+        <v>671611</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578">
+        <v>672503</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579">
+        <v>672525</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580">
+        <v>673734</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581">
+        <v>673972</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582">
+        <v>674821</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583">
+        <v>676287</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584">
+        <v>677456</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585">
+        <v>679978</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586">
+        <v>680900</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587">
+        <v>681031</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588">
+        <v>681994</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589">
+        <v>683617</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590">
+        <v>684207</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591">
+        <v>685316</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592">
+        <v>689306</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593">
+        <v>691092</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594">
+        <v>691587</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595">
+        <v>692858</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596">
+        <v>693092</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597">
+        <v>693821</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598">
+        <v>695289</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599">
+        <v>700514</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600">
+        <v>701390</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601">
+        <v>701990</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602">
+        <v>702891</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603">
+        <v>705398</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604">
+        <v>712119</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605">
+        <v>713689</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606">
+        <v>715408</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607">
+        <v>715881</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608">
+        <v>718199</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609">
+        <v>720027</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610">
+        <v>720121</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611">
+        <v>720466</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612">
+        <v>726641</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613">
+        <v>726742</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614">
+        <v>730971</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615">
+        <v>734183</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616">
+        <v>736031</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617">
+        <v>738681</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618">
+        <v>743411</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619">
+        <v>744202</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620">
+        <v>745776</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621">
+        <v>746201</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622">
+        <v>748350</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623">
+        <v>754975</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624">
+        <v>761617</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625">
+        <v>763558</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626">
+        <v>765025</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627">
+        <v>769691</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628">
+        <v>771993</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629">
+        <v>773431</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630">
+        <v>783072</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631">
+        <v>785808</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632">
+        <v>788525</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633">
+        <v>792455</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634">
+        <v>825651</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635">
+        <v>852434</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636">
+        <v>855229</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637">
+        <v>856312</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638">
+        <v>857392</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639">
+        <v>857977</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640">
+        <v>858572</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641">
+        <v>871089</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642">
+        <v>871100</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643">
+        <v>883458</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644">
+        <v>887265</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645">
+        <v>891955</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646">
+        <v>898559</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647">
+        <v>899179</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648">
+        <v>900587</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649">
+        <v>902437</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650">
+        <v>907796</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651">
+        <v>915963</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652">
+        <v>921212</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653">
+        <v>922424</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654">
+        <v>931855</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655">
+        <v>932340</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656">
+        <v>937438</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657">
+        <v>940024</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658">
         <v>947270</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659">
+        <v>951757</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660">
+        <v>952962</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661">
+        <v>957121</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662">
+        <v>957477</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663">
+        <v>957557</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664">
+        <v>957630</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665">
+        <v>957868</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666">
+        <v>957936</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667">
+        <v>958185</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668">
+        <v>958218</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669">
+        <v>958897</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670">
+        <v>959606</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671">
+        <v>960356</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672">
+        <v>960641</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673">
+        <v>961661</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674">
+        <v>961704</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675">
+        <v>961761</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676">
+        <v>962032</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677">
+        <v>962080</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678">
+        <v>962168</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3153_list.xlsx
+++ b/WS_tags/tag_3153_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A678"/>
+  <dimension ref="A1:A843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,3337 +437,4162 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>67761</v>
+        <v>61205</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>68266</v>
+        <v>65284</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>68641</v>
+        <v>67761</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>71223</v>
+        <v>68266</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>71481</v>
+        <v>68641</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>72009</v>
+        <v>71223</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>73321</v>
+        <v>71481</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>73515</v>
+        <v>72009</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>73605</v>
+        <v>73321</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>75671</v>
+        <v>73515</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>75966</v>
+        <v>73605</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>76431</v>
+        <v>75671</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>79310</v>
+        <v>75966</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>79825</v>
+        <v>76431</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>80438</v>
+        <v>79310</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>82154</v>
+        <v>79825</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>82847</v>
+        <v>80438</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>83130</v>
+        <v>82154</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>83506</v>
+        <v>82847</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>84806</v>
+        <v>83130</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>85494</v>
+        <v>83506</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>85871</v>
+        <v>84806</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>87552</v>
+        <v>85494</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>88079</v>
+        <v>85871</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>88290</v>
+        <v>86320</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>89650</v>
+        <v>87552</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>90123</v>
+        <v>88079</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>90616</v>
+        <v>88290</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>90975</v>
+        <v>89650</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>91002</v>
+        <v>90123</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>91391</v>
+        <v>90616</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>92216</v>
+        <v>90689</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>92816</v>
+        <v>90975</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>93063</v>
+        <v>91002</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>94470</v>
+        <v>91391</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>95631</v>
+        <v>92216</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>95981</v>
+        <v>92816</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>97388</v>
+        <v>93063</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>97460</v>
+        <v>94470</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>98249</v>
+        <v>95084</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>98324</v>
+        <v>95981</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>98353</v>
+        <v>96021</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>100275</v>
+        <v>97388</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>100565</v>
+        <v>97460</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>100925</v>
+        <v>98249</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>102931</v>
+        <v>98324</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>103414</v>
+        <v>98353</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>105181</v>
+        <v>98966</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>107558</v>
+        <v>100275</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>107997</v>
+        <v>100565</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>108170</v>
+        <v>100925</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>109089</v>
+        <v>101812</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>109969</v>
+        <v>102931</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>110358</v>
+        <v>103414</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>110570</v>
+        <v>105181</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>110587</v>
+        <v>106933</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>110640</v>
+        <v>107558</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>110849</v>
+        <v>107997</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>111220</v>
+        <v>108170</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>113051</v>
+        <v>109089</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>113625</v>
+        <v>109969</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>113911</v>
+        <v>110358</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>114305</v>
+        <v>110570</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>114644</v>
+        <v>110640</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>114843</v>
+        <v>110849</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>114985</v>
+        <v>111220</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>117542</v>
+        <v>111704</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>117598</v>
+        <v>113051</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>117874</v>
+        <v>113625</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>118119</v>
+        <v>113697</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>118300</v>
+        <v>113911</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>118871</v>
+        <v>114305</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>118919</v>
+        <v>114644</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>119411</v>
+        <v>114843</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>119678</v>
+        <v>114985</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>120671</v>
+        <v>117471</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>120693</v>
+        <v>117542</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>120724</v>
+        <v>117598</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>120828</v>
+        <v>117874</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>122183</v>
+        <v>118119</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>123131</v>
+        <v>118300</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>123136</v>
+        <v>118871</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>123826</v>
+        <v>118919</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>125437</v>
+        <v>119109</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>126102</v>
+        <v>119411</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>126812</v>
+        <v>119678</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>127071</v>
+        <v>120671</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>127125</v>
+        <v>120693</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>127398</v>
+        <v>120724</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>130010</v>
+        <v>120828</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>130166</v>
+        <v>122183</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>131704</v>
+        <v>123131</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>132968</v>
+        <v>123136</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>133270</v>
+        <v>123826</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>133494</v>
+        <v>125439</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>133508</v>
+        <v>126102</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>134199</v>
+        <v>126812</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>134682</v>
+        <v>127071</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>134941</v>
+        <v>127125</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>139684</v>
+        <v>127398</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>141319</v>
+        <v>130010</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>148017</v>
+        <v>130166</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>148430</v>
+        <v>131704</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>149214</v>
+        <v>132611</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>149284</v>
+        <v>132812</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>149446</v>
+        <v>132968</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>149568</v>
+        <v>133117</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>149648</v>
+        <v>133245</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>149827</v>
+        <v>133270</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>150364</v>
+        <v>133494</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>150537</v>
+        <v>133508</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>150807</v>
+        <v>134199</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>150850</v>
+        <v>134682</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>151017</v>
+        <v>134941</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>151309</v>
+        <v>135128</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>151954</v>
+        <v>139684</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>152089</v>
+        <v>141319</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>152152</v>
+        <v>148017</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>152500</v>
+        <v>148430</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>152985</v>
+        <v>149214</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>153109</v>
+        <v>149284</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>153222</v>
+        <v>149446</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>153477</v>
+        <v>149568</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>153897</v>
+        <v>149648</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>154222</v>
+        <v>149827</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>154794</v>
+        <v>150364</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>155048</v>
+        <v>150424</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>155091</v>
+        <v>150537</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>155219</v>
+        <v>150807</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>155405</v>
+        <v>150850</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>155557</v>
+        <v>151017</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>156218</v>
+        <v>151309</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>156698</v>
+        <v>151954</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>156770</v>
+        <v>152089</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>157273</v>
+        <v>152152</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>157434</v>
+        <v>152500</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>157454</v>
+        <v>152985</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>158706</v>
+        <v>153109</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>159075</v>
+        <v>153222</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>159698</v>
+        <v>153477</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>159982</v>
+        <v>153897</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>160206</v>
+        <v>154222</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>160316</v>
+        <v>154794</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>162564</v>
+        <v>155091</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>162937</v>
+        <v>155219</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>163310</v>
+        <v>155405</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>163649</v>
+        <v>155557</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>163819</v>
+        <v>156141</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>164909</v>
+        <v>156218</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>165517</v>
+        <v>156698</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>165705</v>
+        <v>156770</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>165780</v>
+        <v>157273</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>166126</v>
+        <v>157434</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>166567</v>
+        <v>157454</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>174957</v>
+        <v>158706</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>175075</v>
+        <v>159075</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>175746</v>
+        <v>159698</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>175989</v>
+        <v>159982</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>176380</v>
+        <v>160206</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>177612</v>
+        <v>160316</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>179680</v>
+        <v>162564</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>179803</v>
+        <v>162937</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>180000</v>
+        <v>162952</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>180021</v>
+        <v>163310</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>181487</v>
+        <v>163649</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>181495</v>
+        <v>163819</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>182570</v>
+        <v>164052</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>182740</v>
+        <v>164642</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>183152</v>
+        <v>164909</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>183389</v>
+        <v>165517</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>183901</v>
+        <v>165705</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>183936</v>
+        <v>165780</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>184146</v>
+        <v>166126</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>184322</v>
+        <v>166567</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>184615</v>
+        <v>174957</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>184654</v>
+        <v>175075</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>185127</v>
+        <v>175524</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>185425</v>
+        <v>175989</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>185538</v>
+        <v>176380</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>185726</v>
+        <v>177587</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>186974</v>
+        <v>177612</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>186996</v>
+        <v>179680</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>187756</v>
+        <v>179803</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>187879</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>189251</v>
+        <v>180021</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>189968</v>
+        <v>181487</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>192455</v>
+        <v>181495</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>192563</v>
+        <v>182090</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>193725</v>
+        <v>182570</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>195046</v>
+        <v>182740</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>195175</v>
+        <v>183152</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>195700</v>
+        <v>183389</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>195845</v>
+        <v>183901</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>196338</v>
+        <v>183918</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>196781</v>
+        <v>183936</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>197042</v>
+        <v>184146</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>197366</v>
+        <v>184322</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>198127</v>
+        <v>184615</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>198869</v>
+        <v>184654</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>199143</v>
+        <v>185127</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>199437</v>
+        <v>185425</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>199458</v>
+        <v>185538</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>200574</v>
+        <v>185726</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>201774</v>
+        <v>186974</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>202691</v>
+        <v>186996</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>203018</v>
+        <v>187756</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>203596</v>
+        <v>187879</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>204248</v>
+        <v>188480</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>204541</v>
+        <v>188876</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>204911</v>
+        <v>189251</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>205163</v>
+        <v>189968</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>205580</v>
+        <v>190849</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>205878</v>
+        <v>192079</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>206022</v>
+        <v>192563</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>206232</v>
+        <v>193085</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>207857</v>
+        <v>193725</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>207895</v>
+        <v>193804</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>208212</v>
+        <v>193989</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>209677</v>
+        <v>195046</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>210705</v>
+        <v>195175</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>211350</v>
+        <v>195700</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>211459</v>
+        <v>195845</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>212456</v>
+        <v>196338</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>212475</v>
+        <v>196781</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>212933</v>
+        <v>197042</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>213209</v>
+        <v>197366</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>213839</v>
+        <v>198127</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>214076</v>
+        <v>198869</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>214450</v>
+        <v>199143</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>214509</v>
+        <v>199437</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>215641</v>
+        <v>199458</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>215791</v>
+        <v>200029</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>216311</v>
+        <v>200458</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>216623</v>
+        <v>200574</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>216882</v>
+        <v>200777</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>216979</v>
+        <v>200904</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>217749</v>
+        <v>201180</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>219452</v>
+        <v>201709</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>220292</v>
+        <v>201774</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>221881</v>
+        <v>202691</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>221915</v>
+        <v>203018</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>222194</v>
+        <v>203335</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>222606</v>
+        <v>203596</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>222830</v>
+        <v>203946</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>222876</v>
+        <v>203964</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>223996</v>
+        <v>204248</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>225010</v>
+        <v>204541</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>225013</v>
+        <v>204911</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>225198</v>
+        <v>205163</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>226182</v>
+        <v>205580</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>226579</v>
+        <v>205878</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>228390</v>
+        <v>206022</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>230063</v>
+        <v>206232</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>230119</v>
+        <v>207269</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>231269</v>
+        <v>207424</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>231387</v>
+        <v>207895</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>232769</v>
+        <v>208212</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>233078</v>
+        <v>209677</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>233560</v>
+        <v>210705</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>233820</v>
+        <v>211350</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>233969</v>
+        <v>211459</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>234008</v>
+        <v>212456</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>234169</v>
+        <v>212475</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>235906</v>
+        <v>212933</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>236259</v>
+        <v>213209</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>236607</v>
+        <v>213709</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>236723</v>
+        <v>213839</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>237201</v>
+        <v>214076</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>237831</v>
+        <v>214450</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>239144</v>
+        <v>214509</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>239439</v>
+        <v>215099</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>239734</v>
+        <v>215474</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>240006</v>
+        <v>215641</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>240231</v>
+        <v>215791</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>241405</v>
+        <v>215818</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>241479</v>
+        <v>216311</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>243850</v>
+        <v>216623</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>245530</v>
+        <v>216979</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>245697</v>
+        <v>217595</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>247121</v>
+        <v>217749</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>247869</v>
+        <v>218546</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>248256</v>
+        <v>219452</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>248710</v>
+        <v>220292</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>249727</v>
+        <v>221881</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>250512</v>
+        <v>221915</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>250543</v>
+        <v>222194</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>251385</v>
+        <v>222606</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>252854</v>
+        <v>222830</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>253648</v>
+        <v>222876</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>253888</v>
+        <v>223495</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>257040</v>
+        <v>223996</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>257794</v>
+        <v>224998</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>258029</v>
+        <v>225013</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>258071</v>
+        <v>225198</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>258558</v>
+        <v>226182</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>258686</v>
+        <v>226579</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>261271</v>
+        <v>228390</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>261334</v>
+        <v>228642</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>261888</v>
+        <v>229094</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>262117</v>
+        <v>230063</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>262763</v>
+        <v>230455</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>264083</v>
+        <v>230558</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>265298</v>
+        <v>231224</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>269229</v>
+        <v>231269</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>269529</v>
+        <v>231387</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>269989</v>
+        <v>232769</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>272400</v>
+        <v>233078</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>272542</v>
+        <v>233560</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>274811</v>
+        <v>233648</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>275706</v>
+        <v>233820</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>276602</v>
+        <v>233969</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>278787</v>
+        <v>234008</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>278849</v>
+        <v>235180</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>278897</v>
+        <v>235906</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>281661</v>
+        <v>236259</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>283862</v>
+        <v>236366</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>287152</v>
+        <v>236607</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>287205</v>
+        <v>236723</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>287686</v>
+        <v>237831</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>288038</v>
+        <v>238490</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>290950</v>
+        <v>238831</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>291760</v>
+        <v>239144</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>293185</v>
+        <v>239439</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>293359</v>
+        <v>239734</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>294183</v>
+        <v>240006</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>295233</v>
+        <v>240231</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>297277</v>
+        <v>241405</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>297636</v>
+        <v>241479</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>299745</v>
+        <v>243850</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>300184</v>
+        <v>244830</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>300302</v>
+        <v>245530</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>301974</v>
+        <v>245606</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>304550</v>
+        <v>245697</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>306161</v>
+        <v>247121</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>308523</v>
+        <v>247869</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>308930</v>
+        <v>247936</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>308954</v>
+        <v>248256</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>309585</v>
+        <v>248710</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>310363</v>
+        <v>248716</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>310541</v>
+        <v>249727</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>311300</v>
+        <v>249977</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>311472</v>
+        <v>250512</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>311555</v>
+        <v>250543</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>313001</v>
+        <v>251385</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>313737</v>
+        <v>252854</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>314533</v>
+        <v>253648</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>315451</v>
+        <v>253888</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>316460</v>
+        <v>257040</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>316637</v>
+        <v>257794</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>316760</v>
+        <v>258029</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>317852</v>
+        <v>258071</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>319827</v>
+        <v>258558</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>322955</v>
+        <v>258686</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>323244</v>
+        <v>260223</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>323881</v>
+        <v>260544</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>323904</v>
+        <v>261271</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>326444</v>
+        <v>261334</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>326614</v>
+        <v>261888</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>328975</v>
+        <v>262198</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>329190</v>
+        <v>262382</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>332248</v>
+        <v>262763</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>333516</v>
+        <v>264083</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>333630</v>
+        <v>265298</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>333799</v>
+        <v>269229</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>335873</v>
+        <v>269529</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>336084</v>
+        <v>269989</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>339455</v>
+        <v>270818</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>341699</v>
+        <v>272400</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>342224</v>
+        <v>272542</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>344612</v>
+        <v>272820</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>345937</v>
+        <v>274811</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>346739</v>
+        <v>275706</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>347309</v>
+        <v>276602</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>348449</v>
+        <v>278029</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>348994</v>
+        <v>278787</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>353155</v>
+        <v>278849</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>355777</v>
+        <v>278897</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>356998</v>
+        <v>281661</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>357540</v>
+        <v>287152</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>359875</v>
+        <v>287205</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>360548</v>
+        <v>287686</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>361190</v>
+        <v>288038</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>361561</v>
+        <v>290950</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>361979</v>
+        <v>291760</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>361998</v>
+        <v>291846</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>362751</v>
+        <v>293185</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>364549</v>
+        <v>293359</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>364820</v>
+        <v>294183</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>366180</v>
+        <v>294951</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>366333</v>
+        <v>295233</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>367073</v>
+        <v>297277</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>367155</v>
+        <v>297636</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>371926</v>
+        <v>299745</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>377274</v>
+        <v>300184</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>377764</v>
+        <v>300302</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>378331</v>
+        <v>301974</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>380093</v>
+        <v>302220</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>381218</v>
+        <v>305845</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>381741</v>
+        <v>306161</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>381807</v>
+        <v>306925</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>383294</v>
+        <v>307268</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>383474</v>
+        <v>308523</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>383772</v>
+        <v>308930</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>383942</v>
+        <v>308954</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>386376</v>
+        <v>310363</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>386809</v>
+        <v>310541</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>387330</v>
+        <v>311300</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>387809</v>
+        <v>311472</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>387948</v>
+        <v>311555</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>388142</v>
+        <v>313001</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>390055</v>
+        <v>313737</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>392262</v>
+        <v>314533</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>392566</v>
+        <v>315451</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>392592</v>
+        <v>316460</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>392780</v>
+        <v>316637</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>393636</v>
+        <v>317852</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>394112</v>
+        <v>319799</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>394335</v>
+        <v>319827</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>395092</v>
+        <v>322955</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>395595</v>
+        <v>323244</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>398118</v>
+        <v>323881</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>398120</v>
+        <v>323904</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>398860</v>
+        <v>326444</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>400914</v>
+        <v>326614</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>400975</v>
+        <v>328975</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>401482</v>
+        <v>329063</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>401842</v>
+        <v>329190</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>402051</v>
+        <v>332248</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>402166</v>
+        <v>333340</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>403312</v>
+        <v>333516</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>406381</v>
+        <v>333630</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>407016</v>
+        <v>333799</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>410411</v>
+        <v>335845</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>411195</v>
+        <v>335873</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>411233</v>
+        <v>336084</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>412336</v>
+        <v>337266</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>414757</v>
+        <v>337532</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>417799</v>
+        <v>338266</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>430806</v>
+        <v>339455</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>431153</v>
+        <v>340681</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>436240</v>
+        <v>341699</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>436335</v>
+        <v>342224</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>436383</v>
+        <v>344517</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>436431</v>
+        <v>344612</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>445460</v>
+        <v>345937</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>446859</v>
+        <v>346739</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>451238</v>
+        <v>347309</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>451372</v>
+        <v>348449</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>451554</v>
+        <v>348994</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>451715</v>
+        <v>352329</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>451822</v>
+        <v>352833</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>455329</v>
+        <v>353155</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>455566</v>
+        <v>353369</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>457088</v>
+        <v>355777</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>463313</v>
+        <v>356998</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>464377</v>
+        <v>357540</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>464613</v>
+        <v>359875</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>465587</v>
+        <v>360548</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>466072</v>
+        <v>361190</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>466511</v>
+        <v>361561</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>467938</v>
+        <v>361979</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>467997</v>
+        <v>362651</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>468168</v>
+        <v>363287</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>468353</v>
+        <v>364549</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>468624</v>
+        <v>364820</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>469385</v>
+        <v>366180</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>472173</v>
+        <v>366306</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>472441</v>
+        <v>366333</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>472484</v>
+        <v>367073</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>472585</v>
+        <v>367264</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>473012</v>
+        <v>371926</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>473193</v>
+        <v>375045</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>473412</v>
+        <v>377274</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>474499</v>
+        <v>377764</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>475553</v>
+        <v>378331</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>477134</v>
+        <v>380093</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>477264</v>
+        <v>381218</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>479327</v>
+        <v>381741</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>480596</v>
+        <v>381807</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>481615</v>
+        <v>383294</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>484079</v>
+        <v>383474</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>486132</v>
+        <v>383772</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>488208</v>
+        <v>383942</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>488619</v>
+        <v>386376</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>490616</v>
+        <v>386809</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>492089</v>
+        <v>387330</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>492195</v>
+        <v>387809</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>492322</v>
+        <v>387948</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>493252</v>
+        <v>388142</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>495287</v>
+        <v>388227</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>497640</v>
+        <v>390014</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>499502</v>
+        <v>390055</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>499822</v>
+        <v>392262</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>500643</v>
+        <v>392566</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>502748</v>
+        <v>392592</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>502961</v>
+        <v>394112</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>504344</v>
+        <v>394199</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>505334</v>
+        <v>394335</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>505905</v>
+        <v>395092</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>506390</v>
+        <v>395193</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>506588</v>
+        <v>395595</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>508616</v>
+        <v>395803</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>508914</v>
+        <v>398118</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>510351</v>
+        <v>398120</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>513058</v>
+        <v>398860</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>515990</v>
+        <v>399268</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>516170</v>
+        <v>400340</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>520164</v>
+        <v>400914</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>524917</v>
+        <v>400975</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>527413</v>
+        <v>401482</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>528789</v>
+        <v>401842</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>534708</v>
+        <v>402051</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>536554</v>
+        <v>402166</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>539076</v>
+        <v>403312</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>539224</v>
+        <v>403387</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>541349</v>
+        <v>406381</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>543404</v>
+        <v>407016</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>543726</v>
+        <v>410411</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>546156</v>
+        <v>411195</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>546529</v>
+        <v>411233</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>548517</v>
+        <v>412336</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>551374</v>
+        <v>412777</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>552367</v>
+        <v>413943</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>554415</v>
+        <v>414251</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>554563</v>
+        <v>414757</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>557256</v>
+        <v>417799</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>557558</v>
+        <v>430806</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>558830</v>
+        <v>431153</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>562742</v>
+        <v>431277</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>566965</v>
+        <v>436240</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>568108</v>
+        <v>436335</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>569145</v>
+        <v>436383</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>574124</v>
+        <v>436431</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>582269</v>
+        <v>436816</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>584131</v>
+        <v>442742</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>584740</v>
+        <v>445134</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>586055</v>
+        <v>445460</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>586748</v>
+        <v>446859</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>589602</v>
+        <v>449536</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>592753</v>
+        <v>451238</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>597565</v>
+        <v>451372</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>600029</v>
+        <v>451554</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>604556</v>
+        <v>451715</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>606971</v>
+        <v>453735</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>609581</v>
+        <v>455329</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>617385</v>
+        <v>455566</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>621142</v>
+        <v>456050</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>623166</v>
+        <v>457088</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>634725</v>
+        <v>463313</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>636052</v>
+        <v>464377</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>639052</v>
+        <v>464613</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>640953</v>
+        <v>465587</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>651105</v>
+        <v>466072</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>651667</v>
+        <v>466511</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>651928</v>
+        <v>467938</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>653169</v>
+        <v>467997</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>654499</v>
+        <v>468168</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>656482</v>
+        <v>468353</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>660497</v>
+        <v>468624</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>661743</v>
+        <v>469385</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>665316</v>
+        <v>471932</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>665406</v>
+        <v>471934</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>669070</v>
+        <v>472173</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>670912</v>
+        <v>472220</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>671177</v>
+        <v>472441</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>671611</v>
+        <v>472484</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>672503</v>
+        <v>472585</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>672525</v>
+        <v>473193</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>673734</v>
+        <v>473412</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>673972</v>
+        <v>474499</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>674821</v>
+        <v>475553</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>676287</v>
+        <v>477134</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>677456</v>
+        <v>477264</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>679978</v>
+        <v>478589</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>680900</v>
+        <v>479327</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>681031</v>
+        <v>480596</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>681994</v>
+        <v>481615</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>683617</v>
+        <v>484079</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>684207</v>
+        <v>485257</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>685316</v>
+        <v>485884</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>689306</v>
+        <v>486132</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>691092</v>
+        <v>486192</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>691587</v>
+        <v>488208</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>692858</v>
+        <v>488619</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>693092</v>
+        <v>490616</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>693821</v>
+        <v>492089</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>695289</v>
+        <v>492195</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>700514</v>
+        <v>492322</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>701390</v>
+        <v>493252</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>701990</v>
+        <v>493451</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>702891</v>
+        <v>495287</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>705398</v>
+        <v>496126</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>712119</v>
+        <v>496961</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>713689</v>
+        <v>497640</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>715408</v>
+        <v>497920</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>715881</v>
+        <v>499172</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>718199</v>
+        <v>499329</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>720027</v>
+        <v>499502</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>720121</v>
+        <v>499822</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>720466</v>
+        <v>502748</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>726641</v>
+        <v>502961</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>726742</v>
+        <v>504344</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>730971</v>
+        <v>505334</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>734183</v>
+        <v>506403</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>736031</v>
+        <v>506588</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>738681</v>
+        <v>508616</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>743411</v>
+        <v>508914</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>744202</v>
+        <v>510351</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>745776</v>
+        <v>511016</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>746201</v>
+        <v>512422</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>748350</v>
+        <v>513058</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>754975</v>
+        <v>515990</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>761617</v>
+        <v>516170</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>763558</v>
+        <v>519378</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>765025</v>
+        <v>520164</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>769691</v>
+        <v>524917</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>771993</v>
+        <v>527413</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>773431</v>
+        <v>528789</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>783072</v>
+        <v>534708</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>785808</v>
+        <v>536554</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>788525</v>
+        <v>539076</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>792455</v>
+        <v>539224</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>825651</v>
+        <v>540549</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>852434</v>
+        <v>541349</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>855229</v>
+        <v>541571</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>856312</v>
+        <v>541971</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>857392</v>
+        <v>541984</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>857977</v>
+        <v>543404</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>858572</v>
+        <v>543726</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>871089</v>
+        <v>546529</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>871100</v>
+        <v>548517</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>883458</v>
+        <v>549973</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>887265</v>
+        <v>551374</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>891955</v>
+        <v>551973</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>898559</v>
+        <v>554366</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>899179</v>
+        <v>554415</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>900587</v>
+        <v>554563</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>902437</v>
+        <v>557256</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>907796</v>
+        <v>557558</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>915963</v>
+        <v>558830</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>921212</v>
+        <v>562742</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>922424</v>
+        <v>564537</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>931855</v>
+        <v>566965</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>932340</v>
+        <v>568108</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>937438</v>
+        <v>569145</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>940024</v>
+        <v>573081</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>947270</v>
+        <v>573356</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>951757</v>
+        <v>574124</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>952962</v>
+        <v>580356</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>957121</v>
+        <v>582269</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>957477</v>
+        <v>584131</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>957557</v>
+        <v>584740</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>957630</v>
+        <v>586055</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>957868</v>
+        <v>586748</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>957936</v>
+        <v>589602</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>958185</v>
+        <v>592753</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>958218</v>
+        <v>593158</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>958897</v>
+        <v>594052</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>959606</v>
+        <v>597565</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>960356</v>
+        <v>598076</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>960641</v>
+        <v>600029</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>961661</v>
+        <v>602243</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>961704</v>
+        <v>602525</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>961761</v>
+        <v>609581</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>962032</v>
+        <v>612864</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>962080</v>
+        <v>617385</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
+        <v>621142</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679">
+        <v>623166</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680">
+        <v>628666</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681">
+        <v>634725</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682">
+        <v>636052</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683">
+        <v>639052</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684">
+        <v>640953</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685">
+        <v>651105</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686">
+        <v>651667</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687">
+        <v>651928</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688">
+        <v>653169</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689">
+        <v>656482</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690">
+        <v>656718</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691">
+        <v>658298</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692">
+        <v>660951</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693">
+        <v>661729</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694">
+        <v>661743</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695">
+        <v>665316</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696">
+        <v>665406</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697">
+        <v>665841</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698">
+        <v>666146</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699">
+        <v>669070</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700">
+        <v>670912</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701">
+        <v>671177</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702">
+        <v>671611</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703">
+        <v>672503</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704">
+        <v>673734</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705">
+        <v>673972</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706">
+        <v>674821</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707">
+        <v>674974</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708">
+        <v>676287</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709">
+        <v>677456</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710">
+        <v>679978</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711">
+        <v>680900</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712">
+        <v>681031</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713">
+        <v>681994</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714">
+        <v>683617</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715">
+        <v>685316</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716">
+        <v>687274</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717">
+        <v>688744</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718">
+        <v>689306</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719">
+        <v>689360</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720">
+        <v>690104</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721">
+        <v>691092</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722">
+        <v>691587</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723">
+        <v>692858</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724">
+        <v>693092</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725">
+        <v>693821</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726">
+        <v>695289</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727">
+        <v>700514</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728">
+        <v>701390</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729">
+        <v>701990</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730">
+        <v>702891</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731">
+        <v>712119</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732">
+        <v>713078</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733">
+        <v>713689</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734">
+        <v>715108</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735">
+        <v>715408</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736">
+        <v>715881</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737">
+        <v>718199</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738">
+        <v>720027</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739">
+        <v>720121</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740">
+        <v>720466</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741">
+        <v>722683</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742">
+        <v>723630</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743">
+        <v>724548</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744">
+        <v>725353</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745">
+        <v>726641</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746">
+        <v>726742</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747">
+        <v>728007</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748">
+        <v>729031</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749">
+        <v>730971</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750">
+        <v>731740</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751">
+        <v>734183</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752">
+        <v>736031</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753">
+        <v>738681</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754">
+        <v>740240</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755">
+        <v>740639</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756">
+        <v>743411</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757">
+        <v>744202</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758">
+        <v>745776</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759">
+        <v>746201</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760">
+        <v>746659</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761">
+        <v>748350</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762">
+        <v>748624</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763">
+        <v>754975</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764">
+        <v>760953</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765">
+        <v>761617</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766">
+        <v>762264</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767">
+        <v>762631</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768">
+        <v>763558</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769">
+        <v>765025</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770">
+        <v>768928</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771">
+        <v>769691</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772">
+        <v>771993</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773">
+        <v>773431</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774">
+        <v>783072</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775">
+        <v>785808</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776">
+        <v>792455</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777">
+        <v>825651</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778">
+        <v>852434</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779">
+        <v>855229</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780">
+        <v>856312</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781">
+        <v>857392</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782">
+        <v>857977</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783">
+        <v>858572</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784">
+        <v>859750</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785">
+        <v>862883</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786">
+        <v>864080</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787">
+        <v>868635</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788">
+        <v>871089</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789">
+        <v>871100</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790">
+        <v>871315</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791">
+        <v>883458</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792">
+        <v>891955</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793">
+        <v>898559</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794">
+        <v>899179</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795">
+        <v>900587</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796">
+        <v>902437</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797">
+        <v>907796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798">
+        <v>909356</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799">
+        <v>911000</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800">
+        <v>915890</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801">
+        <v>915963</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802">
+        <v>921212</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803">
+        <v>922424</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804">
+        <v>931855</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805">
+        <v>932340</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806">
+        <v>934734</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807">
+        <v>937438</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808">
+        <v>937538</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809">
+        <v>940024</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810">
+        <v>947270</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811">
+        <v>951757</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812">
+        <v>952962</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813">
+        <v>957121</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814">
+        <v>957477</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815">
+        <v>957557</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816">
+        <v>957630</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817">
+        <v>957936</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818">
+        <v>958185</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819">
+        <v>958218</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820">
+        <v>958897</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821">
+        <v>959606</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822">
+        <v>960641</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823">
+        <v>961661</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824">
+        <v>961704</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825">
+        <v>962032</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826">
+        <v>962080</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827">
         <v>962168</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828">
+        <v>962401</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829">
+        <v>962759</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830">
+        <v>962815</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831">
+        <v>962839</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832">
+        <v>964137</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833">
+        <v>964142</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834">
+        <v>964159</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835">
+        <v>964163</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836">
+        <v>964549</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837">
+        <v>964898</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838">
+        <v>965195</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839">
+        <v>965313</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840">
+        <v>965401</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841">
+        <v>966440</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842">
+        <v>967165</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843">
+        <v>967686</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3153_list.xlsx
+++ b/WS_tags/tag_3153_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A843"/>
+  <dimension ref="A1:A845"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,2537 +877,2537 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>120724</v>
+        <v>120828</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>120828</v>
+        <v>122183</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>122183</v>
+        <v>123131</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>123131</v>
+        <v>123136</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>123136</v>
+        <v>123826</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>123826</v>
+        <v>125439</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>125439</v>
+        <v>126102</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>126102</v>
+        <v>126812</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>126812</v>
+        <v>127071</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>127071</v>
+        <v>127125</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>127125</v>
+        <v>127398</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>127398</v>
+        <v>130010</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>130010</v>
+        <v>130166</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>130166</v>
+        <v>131704</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>131704</v>
+        <v>132611</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>132611</v>
+        <v>132812</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>132812</v>
+        <v>132968</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>132968</v>
+        <v>133117</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>133117</v>
+        <v>133245</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>133245</v>
+        <v>133270</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>133270</v>
+        <v>133494</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>133494</v>
+        <v>133508</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>133508</v>
+        <v>134199</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>134199</v>
+        <v>134682</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>134682</v>
+        <v>134941</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>134941</v>
+        <v>135128</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>135128</v>
+        <v>139684</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>139684</v>
+        <v>141319</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>141319</v>
+        <v>148017</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>148017</v>
+        <v>148430</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>148430</v>
+        <v>149214</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>149214</v>
+        <v>149284</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>149284</v>
+        <v>149446</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>149446</v>
+        <v>149568</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>149568</v>
+        <v>149827</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>149648</v>
+        <v>150364</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>149827</v>
+        <v>150424</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>150364</v>
+        <v>150537</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>150424</v>
+        <v>150807</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>150537</v>
+        <v>150850</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>150807</v>
+        <v>151017</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>150850</v>
+        <v>151309</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>151017</v>
+        <v>151954</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>151309</v>
+        <v>152152</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>151954</v>
+        <v>152500</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>152089</v>
+        <v>152985</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>152152</v>
+        <v>153109</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>152500</v>
+        <v>153222</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>152985</v>
+        <v>153477</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>153109</v>
+        <v>154222</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>153222</v>
+        <v>154794</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>153477</v>
+        <v>155091</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>153897</v>
+        <v>155219</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>154222</v>
+        <v>155405</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>154794</v>
+        <v>155557</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>155091</v>
+        <v>156141</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>155219</v>
+        <v>156218</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>155405</v>
+        <v>156698</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>155557</v>
+        <v>156770</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>156141</v>
+        <v>157273</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>156218</v>
+        <v>157434</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>156698</v>
+        <v>157454</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>156770</v>
+        <v>158706</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>157273</v>
+        <v>159075</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>157434</v>
+        <v>159698</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>157454</v>
+        <v>159982</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>158706</v>
+        <v>160206</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>159075</v>
+        <v>160316</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>159698</v>
+        <v>162564</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>159982</v>
+        <v>162937</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>160206</v>
+        <v>162952</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>160316</v>
+        <v>163310</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>162564</v>
+        <v>163649</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>162937</v>
+        <v>163819</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>162952</v>
+        <v>164052</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>163310</v>
+        <v>164642</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>163649</v>
+        <v>164909</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>163819</v>
+        <v>165517</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>164052</v>
+        <v>165705</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>164642</v>
+        <v>165780</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>164909</v>
+        <v>166126</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>165517</v>
+        <v>166567</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>165705</v>
+        <v>174957</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>165780</v>
+        <v>175075</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>166126</v>
+        <v>175524</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>166567</v>
+        <v>175989</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>174957</v>
+        <v>176380</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>175075</v>
+        <v>177587</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>175524</v>
+        <v>177612</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>175989</v>
+        <v>179680</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>176380</v>
+        <v>179803</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>177587</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>177612</v>
+        <v>180021</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>179680</v>
+        <v>181487</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>179803</v>
+        <v>181495</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>180000</v>
+        <v>182090</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>180021</v>
+        <v>182570</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>181487</v>
+        <v>182740</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>181495</v>
+        <v>183152</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>182090</v>
+        <v>183389</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>182570</v>
+        <v>183901</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>182740</v>
+        <v>183918</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>183152</v>
+        <v>183936</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>183389</v>
+        <v>184146</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>183901</v>
+        <v>184322</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>183918</v>
+        <v>184615</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>183936</v>
+        <v>184654</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>184146</v>
+        <v>185127</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>184322</v>
+        <v>185425</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>184615</v>
+        <v>185538</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>184654</v>
+        <v>185726</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>185127</v>
+        <v>186974</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>185425</v>
+        <v>186996</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>185538</v>
+        <v>187756</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>185726</v>
+        <v>187879</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>186974</v>
+        <v>188480</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>186996</v>
+        <v>189251</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>187756</v>
+        <v>189968</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>187879</v>
+        <v>190849</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>188480</v>
+        <v>192079</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>188876</v>
+        <v>192563</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>189251</v>
+        <v>193085</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>189968</v>
+        <v>193725</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>190849</v>
+        <v>193804</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>192079</v>
+        <v>193989</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>192563</v>
+        <v>195046</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>193085</v>
+        <v>195175</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>193725</v>
+        <v>195700</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>193804</v>
+        <v>195845</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>193989</v>
+        <v>196338</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>195046</v>
+        <v>196781</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>195175</v>
+        <v>197042</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>195700</v>
+        <v>197366</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>195845</v>
+        <v>198127</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>196338</v>
+        <v>198869</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>196781</v>
+        <v>199143</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>197042</v>
+        <v>199437</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>197366</v>
+        <v>199458</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>198127</v>
+        <v>200029</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>198869</v>
+        <v>200458</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>199143</v>
+        <v>200574</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>199437</v>
+        <v>200777</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>199458</v>
+        <v>200904</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>200029</v>
+        <v>201180</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>200458</v>
+        <v>201709</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>200574</v>
+        <v>201774</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>200777</v>
+        <v>202691</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>200904</v>
+        <v>203018</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>201180</v>
+        <v>203335</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>201709</v>
+        <v>203596</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>201774</v>
+        <v>203946</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>202691</v>
+        <v>203964</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>203018</v>
+        <v>204248</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>203335</v>
+        <v>204541</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>203596</v>
+        <v>204911</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>203946</v>
+        <v>205580</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>203964</v>
+        <v>205878</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>204248</v>
+        <v>206022</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>204541</v>
+        <v>206232</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>204911</v>
+        <v>207269</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>205163</v>
+        <v>207424</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>205580</v>
+        <v>207895</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>205878</v>
+        <v>208212</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>206022</v>
+        <v>209677</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>206232</v>
+        <v>210705</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>207269</v>
+        <v>211350</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>207424</v>
+        <v>211459</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>207895</v>
+        <v>212456</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>208212</v>
+        <v>212475</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>209677</v>
+        <v>212933</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>210705</v>
+        <v>213209</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>211350</v>
+        <v>213709</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>211459</v>
+        <v>213839</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>212456</v>
+        <v>214076</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>212475</v>
+        <v>214450</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>212933</v>
+        <v>214509</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>213209</v>
+        <v>215099</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>213709</v>
+        <v>215474</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>213839</v>
+        <v>215641</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>214076</v>
+        <v>215791</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>214450</v>
+        <v>215818</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>214509</v>
+        <v>216265</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>215099</v>
+        <v>216311</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>215474</v>
+        <v>216623</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>215641</v>
+        <v>216979</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>215791</v>
+        <v>217595</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>215818</v>
+        <v>217749</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>216311</v>
+        <v>218546</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>216623</v>
+        <v>219452</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>216979</v>
+        <v>220292</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>217595</v>
+        <v>221881</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>217749</v>
+        <v>221915</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>218546</v>
+        <v>222194</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>219452</v>
+        <v>222606</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>220292</v>
+        <v>222830</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>221881</v>
+        <v>222876</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>221915</v>
+        <v>223495</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>222194</v>
+        <v>223996</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>222606</v>
+        <v>224998</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>222830</v>
+        <v>225013</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>222876</v>
+        <v>225198</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>223495</v>
+        <v>226182</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>223996</v>
+        <v>226579</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>224998</v>
+        <v>228390</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>225013</v>
+        <v>228642</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>225198</v>
+        <v>228818</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>226182</v>
+        <v>229094</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>226579</v>
+        <v>230063</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>228390</v>
+        <v>230455</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>228642</v>
+        <v>230558</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>229094</v>
+        <v>231224</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>230063</v>
+        <v>231269</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>230455</v>
+        <v>231387</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>230558</v>
+        <v>232769</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>231224</v>
+        <v>233078</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>231269</v>
+        <v>233560</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>231387</v>
+        <v>233648</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>232769</v>
+        <v>233820</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>233078</v>
+        <v>233969</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>233560</v>
+        <v>234008</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>233648</v>
+        <v>235180</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>233820</v>
+        <v>235906</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>233969</v>
+        <v>236259</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>234008</v>
+        <v>236366</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>235180</v>
+        <v>236607</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>235906</v>
+        <v>236723</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>236259</v>
+        <v>237831</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>236366</v>
+        <v>238490</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>236607</v>
+        <v>238831</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>236723</v>
+        <v>239144</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>237831</v>
+        <v>239439</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>238490</v>
+        <v>239734</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>238831</v>
+        <v>240006</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>239144</v>
+        <v>240231</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>239439</v>
+        <v>241405</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>239734</v>
+        <v>241479</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>240006</v>
+        <v>243850</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>240231</v>
+        <v>244830</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>241405</v>
+        <v>245530</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>241479</v>
+        <v>245606</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>243850</v>
+        <v>245697</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>244830</v>
+        <v>247121</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>245530</v>
+        <v>247869</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>245606</v>
+        <v>247936</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>245697</v>
+        <v>248256</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>247121</v>
+        <v>248710</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>247869</v>
+        <v>248716</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>247936</v>
+        <v>249727</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>248256</v>
+        <v>249977</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>248710</v>
+        <v>250512</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>248716</v>
+        <v>250543</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>249727</v>
+        <v>251385</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>249977</v>
+        <v>252854</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>250512</v>
+        <v>253888</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>250543</v>
+        <v>257040</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>251385</v>
+        <v>257794</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>252854</v>
+        <v>258029</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>253648</v>
+        <v>258071</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>253888</v>
+        <v>258558</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>257040</v>
+        <v>258686</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>257794</v>
+        <v>260223</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>258029</v>
+        <v>260544</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>258071</v>
+        <v>261271</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>258558</v>
+        <v>261334</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>258686</v>
+        <v>261888</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>260223</v>
+        <v>262382</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>260544</v>
+        <v>262763</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>261271</v>
+        <v>264083</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>261334</v>
+        <v>265298</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>261888</v>
+        <v>269229</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>262198</v>
+        <v>269529</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>262382</v>
+        <v>269989</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>262763</v>
+        <v>270818</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>264083</v>
+        <v>272400</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>265298</v>
+        <v>272542</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>269229</v>
+        <v>272820</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>269529</v>
+        <v>274811</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>269989</v>
+        <v>275706</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>270818</v>
+        <v>276602</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>272400</v>
+        <v>278029</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>272542</v>
+        <v>278787</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>272820</v>
+        <v>278849</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>274811</v>
+        <v>278897</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>275706</v>
+        <v>287152</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>276602</v>
+        <v>287205</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>278029</v>
+        <v>287686</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>278787</v>
+        <v>288038</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>278849</v>
+        <v>290950</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>278897</v>
+        <v>291760</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>281661</v>
+        <v>291846</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>287152</v>
+        <v>293185</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>287205</v>
+        <v>293359</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>287686</v>
+        <v>294183</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>288038</v>
+        <v>294951</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>290950</v>
+        <v>295233</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>291760</v>
+        <v>297277</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>291846</v>
+        <v>297636</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>293185</v>
+        <v>299745</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>293359</v>
+        <v>300184</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>294183</v>
+        <v>300302</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>294951</v>
+        <v>301974</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>295233</v>
+        <v>302220</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>297277</v>
+        <v>305845</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>297636</v>
+        <v>306161</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>299745</v>
+        <v>306925</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>300184</v>
+        <v>307268</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>300302</v>
+        <v>308523</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>301974</v>
+        <v>308930</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>302220</v>
+        <v>308954</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>305845</v>
+        <v>310363</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>306161</v>
+        <v>310541</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>306925</v>
+        <v>311300</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>307268</v>
+        <v>311472</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>308523</v>
+        <v>311555</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>308930</v>
+        <v>313001</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>308954</v>
+        <v>313737</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>310363</v>
+        <v>314533</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>310541</v>
+        <v>315451</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>311300</v>
+        <v>316460</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>311472</v>
+        <v>316637</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>311555</v>
+        <v>317852</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>313001</v>
+        <v>319799</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>313737</v>
+        <v>319827</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>314533</v>
+        <v>322955</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>315451</v>
+        <v>323244</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>316460</v>
+        <v>323881</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>316637</v>
+        <v>323904</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>317852</v>
+        <v>326444</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>319799</v>
+        <v>326614</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>319827</v>
+        <v>328975</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>322955</v>
+        <v>329063</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>323244</v>
+        <v>329190</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>323881</v>
+        <v>332248</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>323904</v>
+        <v>333340</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>326444</v>
+        <v>333516</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>326614</v>
+        <v>333630</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>328975</v>
+        <v>333799</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>329063</v>
+        <v>335845</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>329190</v>
+        <v>335873</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>332248</v>
+        <v>336084</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>333340</v>
+        <v>337266</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>333516</v>
+        <v>337532</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>333630</v>
+        <v>338266</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>333799</v>
+        <v>339455</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>335845</v>
+        <v>340681</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>335873</v>
+        <v>341699</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>336084</v>
+        <v>342224</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>337266</v>
+        <v>344517</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>337532</v>
+        <v>344612</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>338266</v>
+        <v>345937</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>339455</v>
+        <v>346739</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>340681</v>
+        <v>347309</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>341699</v>
+        <v>348449</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>342224</v>
+        <v>348994</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>344517</v>
+        <v>352329</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>344612</v>
+        <v>352833</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>345937</v>
+        <v>353155</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>346739</v>
+        <v>353369</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>347309</v>
+        <v>355777</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>348449</v>
+        <v>356998</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>348994</v>
+        <v>357540</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>352329</v>
+        <v>359875</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>352833</v>
+        <v>360548</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>353155</v>
+        <v>361190</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>353369</v>
+        <v>361561</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>355777</v>
+        <v>361979</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>356998</v>
+        <v>362651</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>357540</v>
+        <v>363287</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>359875</v>
+        <v>364549</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>360548</v>
+        <v>364820</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>361190</v>
+        <v>366180</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>361561</v>
+        <v>366306</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>361979</v>
+        <v>366333</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>362651</v>
+        <v>367073</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>363287</v>
+        <v>367264</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>364549</v>
+        <v>368085</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>364820</v>
+        <v>371926</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>366180</v>
+        <v>373942</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>366306</v>
+        <v>375045</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>366333</v>
+        <v>377274</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>367073</v>
+        <v>377764</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>367264</v>
+        <v>378331</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>371926</v>
+        <v>380093</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>375045</v>
+        <v>381218</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>377274</v>
+        <v>381741</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>377764</v>
+        <v>381807</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>378331</v>
+        <v>383045</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>380093</v>
+        <v>383294</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>381218</v>
+        <v>383474</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>381741</v>
+        <v>383772</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>381807</v>
+        <v>383942</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>383294</v>
+        <v>386376</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>383474</v>
+        <v>386809</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>383772</v>
+        <v>387330</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>383942</v>
+        <v>387809</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>386376</v>
+        <v>387948</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>386809</v>
+        <v>388142</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>387330</v>
+        <v>388227</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>387809</v>
+        <v>390014</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>387948</v>
+        <v>390055</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>388142</v>
+        <v>392262</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>388227</v>
+        <v>392566</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>390014</v>
+        <v>392592</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>390055</v>
+        <v>394112</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>392262</v>
+        <v>394199</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>392566</v>
+        <v>394335</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>392592</v>
+        <v>395092</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>394112</v>
+        <v>395193</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>394199</v>
+        <v>395595</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>394335</v>
+        <v>395803</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>395092</v>
+        <v>398118</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>395193</v>
+        <v>398120</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>395595</v>
+        <v>398860</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>395803</v>
+        <v>399268</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>398118</v>
+        <v>400340</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>398120</v>
+        <v>400914</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>398860</v>
+        <v>400975</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>399268</v>
+        <v>401482</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>400340</v>
+        <v>401842</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>400914</v>
+        <v>402051</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>400975</v>
+        <v>402166</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>401482</v>
+        <v>403312</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>401842</v>
+        <v>403387</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>402051</v>
+        <v>406381</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>402166</v>
+        <v>407016</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>403312</v>
+        <v>410411</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>403387</v>
+        <v>411195</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>406381</v>
+        <v>411233</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>407016</v>
+        <v>412336</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>410411</v>
+        <v>412777</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>411195</v>
+        <v>413943</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>411233</v>
+        <v>414251</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>412336</v>
+        <v>414757</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>412777</v>
+        <v>417799</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>413943</v>
+        <v>430099</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>414251</v>
+        <v>430806</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>414757</v>
+        <v>431153</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>417799</v>
+        <v>431277</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>430806</v>
+        <v>434148</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>431153</v>
+        <v>436240</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>431277</v>
+        <v>436335</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>436240</v>
+        <v>436383</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>436335</v>
+        <v>436431</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>436383</v>
+        <v>436816</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>436431</v>
+        <v>442742</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>436816</v>
+        <v>445134</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>442742</v>
+        <v>445460</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>445134</v>
+        <v>446859</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>445460</v>
+        <v>449536</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>446859</v>
+        <v>451238</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>449536</v>
+        <v>451372</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>451238</v>
+        <v>451554</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>451372</v>
+        <v>451715</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>451554</v>
+        <v>453735</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>451715</v>
+        <v>455329</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>453735</v>
+        <v>456050</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>455329</v>
+        <v>457088</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>455566</v>
+        <v>463313</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>456050</v>
+        <v>464377</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>457088</v>
+        <v>464613</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>463313</v>
+        <v>465587</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>464377</v>
+        <v>466072</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>464613</v>
+        <v>466511</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>465587</v>
+        <v>467938</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>466072</v>
+        <v>467997</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>466511</v>
+        <v>468168</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>467938</v>
+        <v>468353</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>467997</v>
+        <v>468624</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>468168</v>
+        <v>469385</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>468353</v>
+        <v>471616</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>468624</v>
+        <v>471932</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>469385</v>
+        <v>471934</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>471932</v>
+        <v>472173</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>471934</v>
+        <v>472220</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>472173</v>
+        <v>472441</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>472220</v>
+        <v>472484</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>472441</v>
+        <v>472585</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>472484</v>
+        <v>473193</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>472585</v>
+        <v>473412</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>473193</v>
+        <v>474499</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>473412</v>
+        <v>475553</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>474499</v>
+        <v>475973</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>475553</v>
+        <v>477134</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>477134</v>
+        <v>477264</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>477264</v>
+        <v>478589</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>478589</v>
+        <v>479327</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>479327</v>
+        <v>480596</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>480596</v>
+        <v>481615</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>481615</v>
+        <v>484079</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>484079</v>
+        <v>485257</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>485257</v>
+        <v>485884</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>485884</v>
+        <v>486132</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>486132</v>
+        <v>486192</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>486192</v>
+        <v>488208</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>488208</v>
+        <v>488619</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>488619</v>
+        <v>490616</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>490616</v>
+        <v>492089</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>492089</v>
+        <v>492195</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>492195</v>
+        <v>492322</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>492322</v>
+        <v>493252</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>493252</v>
+        <v>493451</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>493451</v>
+        <v>495287</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>495287</v>
+        <v>496126</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>496126</v>
+        <v>496961</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>496961</v>
+        <v>497640</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>497640</v>
+        <v>497920</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>497920</v>
+        <v>497938</v>
       </c>
     </row>
     <row r="607" spans="1:1">
@@ -3452,1146 +3452,1156 @@
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>506403</v>
+        <v>505905</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>506588</v>
+        <v>506403</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>508616</v>
+        <v>506588</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>508914</v>
+        <v>508616</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>510351</v>
+        <v>508914</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>511016</v>
+        <v>510351</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>512422</v>
+        <v>511016</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>513058</v>
+        <v>512422</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>515990</v>
+        <v>513058</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>516170</v>
+        <v>515990</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>519378</v>
+        <v>516170</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>520164</v>
+        <v>519378</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>524917</v>
+        <v>520164</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>527413</v>
+        <v>524917</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>528789</v>
+        <v>527413</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>534708</v>
+        <v>528789</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>536554</v>
+        <v>534708</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>539076</v>
+        <v>535564</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>539224</v>
+        <v>536554</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>540549</v>
+        <v>539076</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>541349</v>
+        <v>539224</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>541571</v>
+        <v>540549</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>541971</v>
+        <v>541349</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>541984</v>
+        <v>541571</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>543404</v>
+        <v>541971</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>543726</v>
+        <v>541984</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>546529</v>
+        <v>543404</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>548517</v>
+        <v>543726</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>549973</v>
+        <v>546529</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>551374</v>
+        <v>548517</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>551973</v>
+        <v>549973</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>554366</v>
+        <v>551374</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>554415</v>
+        <v>551973</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>554563</v>
+        <v>554366</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>557256</v>
+        <v>554415</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>557558</v>
+        <v>554563</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>558830</v>
+        <v>557256</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>562742</v>
+        <v>557558</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>564537</v>
+        <v>558830</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>566965</v>
+        <v>562742</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>568108</v>
+        <v>564537</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>569145</v>
+        <v>566965</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>573081</v>
+        <v>568108</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>573356</v>
+        <v>569145</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>574124</v>
+        <v>573081</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>580356</v>
+        <v>573356</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>582269</v>
+        <v>574124</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>584131</v>
+        <v>580356</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>584740</v>
+        <v>582269</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>586055</v>
+        <v>584131</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>586748</v>
+        <v>584740</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>589602</v>
+        <v>586055</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>592753</v>
+        <v>586748</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>593158</v>
+        <v>589602</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>594052</v>
+        <v>592753</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>597565</v>
+        <v>593158</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>598076</v>
+        <v>594052</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>600029</v>
+        <v>597565</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>602243</v>
+        <v>598076</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>602525</v>
+        <v>602243</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>609581</v>
+        <v>602525</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>612864</v>
+        <v>609581</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>617385</v>
+        <v>612864</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>621142</v>
+        <v>617385</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>623166</v>
+        <v>621142</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>628666</v>
+        <v>623166</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>634725</v>
+        <v>628666</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>636052</v>
+        <v>634725</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>639052</v>
+        <v>636052</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>640953</v>
+        <v>639052</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>651105</v>
+        <v>640953</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>651667</v>
+        <v>651105</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>651928</v>
+        <v>651667</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>653169</v>
+        <v>651928</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>656482</v>
+        <v>653169</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>656718</v>
+        <v>656482</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>658298</v>
+        <v>656718</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>660951</v>
+        <v>658298</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>661729</v>
+        <v>660951</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>661743</v>
+        <v>661729</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>665316</v>
+        <v>661743</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>665406</v>
+        <v>665316</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>665841</v>
+        <v>665406</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>666146</v>
+        <v>665841</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>669070</v>
+        <v>666146</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>670912</v>
+        <v>669070</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>671177</v>
+        <v>670912</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>671611</v>
+        <v>671177</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>672503</v>
+        <v>671611</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>673734</v>
+        <v>672503</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>673972</v>
+        <v>673734</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>674821</v>
+        <v>673972</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>674974</v>
+        <v>674821</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>676287</v>
+        <v>674974</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>677456</v>
+        <v>676287</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>679978</v>
+        <v>677456</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>680900</v>
+        <v>679978</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>681031</v>
+        <v>680900</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>681994</v>
+        <v>681031</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>683617</v>
+        <v>681994</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>685316</v>
+        <v>683617</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>687274</v>
+        <v>685316</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>688744</v>
+        <v>687274</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>689306</v>
+        <v>688744</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>689360</v>
+        <v>689306</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>690104</v>
+        <v>689360</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>691092</v>
+        <v>690104</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>691587</v>
+        <v>691092</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>692858</v>
+        <v>691587</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>693092</v>
+        <v>692858</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>693821</v>
+        <v>693092</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>695289</v>
+        <v>693821</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>700514</v>
+        <v>695289</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>701390</v>
+        <v>700514</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>701990</v>
+        <v>701390</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>702891</v>
+        <v>701990</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>712119</v>
+        <v>702891</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>713078</v>
+        <v>712119</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>713689</v>
+        <v>713078</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>715108</v>
+        <v>713689</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>715408</v>
+        <v>715108</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>715881</v>
+        <v>715408</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>718199</v>
+        <v>715881</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>720027</v>
+        <v>718199</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>720121</v>
+        <v>720027</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>720466</v>
+        <v>720121</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>722683</v>
+        <v>720466</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>723630</v>
+        <v>722683</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>724548</v>
+        <v>723630</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>725353</v>
+        <v>724548</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>726641</v>
+        <v>725353</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>726742</v>
+        <v>726641</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>728007</v>
+        <v>726742</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>729031</v>
+        <v>728007</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>730971</v>
+        <v>729031</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>731740</v>
+        <v>730971</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>734183</v>
+        <v>731740</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>736031</v>
+        <v>734183</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>738681</v>
+        <v>736031</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>740240</v>
+        <v>738681</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>740639</v>
+        <v>740240</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>743411</v>
+        <v>740639</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>744202</v>
+        <v>743411</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>745776</v>
+        <v>744202</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>746201</v>
+        <v>745776</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>746659</v>
+        <v>746201</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>748350</v>
+        <v>746659</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>748624</v>
+        <v>748350</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>754975</v>
+        <v>748624</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>760953</v>
+        <v>754975</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>761617</v>
+        <v>760953</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>762264</v>
+        <v>761617</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>762631</v>
+        <v>762264</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>763558</v>
+        <v>762631</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>765025</v>
+        <v>763558</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>768928</v>
+        <v>765025</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>769691</v>
+        <v>768928</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>771993</v>
+        <v>769691</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>773431</v>
+        <v>771993</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>783072</v>
+        <v>773431</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>785808</v>
+        <v>783072</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>792455</v>
+        <v>785808</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>825651</v>
+        <v>792455</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>852434</v>
+        <v>825651</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>855229</v>
+        <v>852434</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>856312</v>
+        <v>855229</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>857392</v>
+        <v>856312</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>857977</v>
+        <v>857392</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>858572</v>
+        <v>857977</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>859750</v>
+        <v>858572</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>862883</v>
+        <v>859750</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>864080</v>
+        <v>862883</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>868635</v>
+        <v>864080</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>871089</v>
+        <v>868635</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>871100</v>
+        <v>871089</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>871315</v>
+        <v>871100</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>883458</v>
+        <v>871315</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>891955</v>
+        <v>883458</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>898559</v>
+        <v>886020</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>899179</v>
+        <v>891955</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>900587</v>
+        <v>898559</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>902437</v>
+        <v>899179</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>907796</v>
+        <v>900587</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>909356</v>
+        <v>902437</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>911000</v>
+        <v>907796</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>915890</v>
+        <v>909356</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>915963</v>
+        <v>911000</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>921212</v>
+        <v>914520</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>922424</v>
+        <v>915890</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>931855</v>
+        <v>915963</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>932340</v>
+        <v>921212</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>934734</v>
+        <v>931855</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>937438</v>
+        <v>932340</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>937538</v>
+        <v>934734</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>940024</v>
+        <v>937438</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>947270</v>
+        <v>937538</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>951757</v>
+        <v>940024</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>952962</v>
+        <v>947270</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>957121</v>
+        <v>951757</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>957477</v>
+        <v>952962</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>957557</v>
+        <v>957121</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>957630</v>
+        <v>957477</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>957936</v>
+        <v>957557</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>958185</v>
+        <v>957630</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>958218</v>
+        <v>957936</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>958897</v>
+        <v>958185</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>959606</v>
+        <v>958218</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>960641</v>
+        <v>958897</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>961661</v>
+        <v>959606</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>961704</v>
+        <v>960641</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>962032</v>
+        <v>961661</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>962080</v>
+        <v>961704</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>962168</v>
+        <v>962032</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>962401</v>
+        <v>962080</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>962759</v>
+        <v>962168</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>962815</v>
+        <v>962401</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>962839</v>
+        <v>962759</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>964137</v>
+        <v>962815</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>964142</v>
+        <v>962839</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>964159</v>
+        <v>964137</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>964163</v>
+        <v>964142</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>964549</v>
+        <v>964159</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>964898</v>
+        <v>964163</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>965195</v>
+        <v>964549</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>965313</v>
+        <v>964898</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>965401</v>
+        <v>965195</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>966440</v>
+        <v>965313</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>967165</v>
+        <v>965401</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
+        <v>966440</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844">
+        <v>967165</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845">
         <v>967686</v>
       </c>
     </row>

--- a/WS_tags/tag_3153_list.xlsx
+++ b/WS_tags/tag_3153_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A845"/>
+  <dimension ref="A1:A843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,4172 +437,4162 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>61205</v>
+        <v>67761</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>65284</v>
+        <v>68641</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>67761</v>
+        <v>71223</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>68266</v>
+        <v>71481</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>68641</v>
+        <v>72009</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>71223</v>
+        <v>73321</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>71481</v>
+        <v>73515</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>72009</v>
+        <v>73605</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>73321</v>
+        <v>75671</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>73515</v>
+        <v>75966</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>73605</v>
+        <v>79310</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>75671</v>
+        <v>79825</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>75966</v>
+        <v>80438</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>76431</v>
+        <v>82154</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>79310</v>
+        <v>82847</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>79825</v>
+        <v>83130</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>80438</v>
+        <v>83506</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>82154</v>
+        <v>84703</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>82847</v>
+        <v>85494</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>83130</v>
+        <v>85871</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>83506</v>
+        <v>86320</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>84806</v>
+        <v>87552</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>85494</v>
+        <v>88079</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>85871</v>
+        <v>88290</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>86320</v>
+        <v>89650</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>87552</v>
+        <v>90123</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>88079</v>
+        <v>90616</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>88290</v>
+        <v>91002</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>89650</v>
+        <v>91391</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>90123</v>
+        <v>92216</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>90616</v>
+        <v>92816</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>90689</v>
+        <v>93063</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>90975</v>
+        <v>94470</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>91002</v>
+        <v>95084</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>91391</v>
+        <v>95631</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>92216</v>
+        <v>95981</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>92816</v>
+        <v>96021</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>93063</v>
+        <v>97388</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>94470</v>
+        <v>97460</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>95084</v>
+        <v>98249</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>95981</v>
+        <v>98324</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>96021</v>
+        <v>98353</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>97388</v>
+        <v>100275</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>97460</v>
+        <v>100565</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>98249</v>
+        <v>100925</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>98324</v>
+        <v>101812</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>98353</v>
+        <v>102931</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>98966</v>
+        <v>103414</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>100275</v>
+        <v>105181</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>100565</v>
+        <v>106933</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>100925</v>
+        <v>107558</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>101812</v>
+        <v>107997</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>102931</v>
+        <v>108170</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>103414</v>
+        <v>109089</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>105181</v>
+        <v>109969</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>106933</v>
+        <v>110358</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>107558</v>
+        <v>110570</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>107997</v>
+        <v>110640</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>108170</v>
+        <v>110848</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>109089</v>
+        <v>110849</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>109969</v>
+        <v>111220</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>110358</v>
+        <v>111704</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>110570</v>
+        <v>113051</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>110640</v>
+        <v>113697</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>110849</v>
+        <v>113911</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>111220</v>
+        <v>114305</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>111704</v>
+        <v>114552</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>113051</v>
+        <v>114644</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>113625</v>
+        <v>114843</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>113697</v>
+        <v>114985</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>113911</v>
+        <v>117471</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>114305</v>
+        <v>117542</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>114644</v>
+        <v>117598</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>114843</v>
+        <v>117874</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>114985</v>
+        <v>118119</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>117471</v>
+        <v>118300</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>117542</v>
+        <v>118871</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>117598</v>
+        <v>118919</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>117874</v>
+        <v>119109</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>118119</v>
+        <v>119411</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>118300</v>
+        <v>119678</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>118871</v>
+        <v>120671</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>118919</v>
+        <v>120693</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>119109</v>
+        <v>120828</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>119411</v>
+        <v>123131</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>119678</v>
+        <v>123136</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>120671</v>
+        <v>123826</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>120693</v>
+        <v>125437</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>120828</v>
+        <v>126102</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>122183</v>
+        <v>126812</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>123131</v>
+        <v>127071</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>123136</v>
+        <v>127125</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>123826</v>
+        <v>127398</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>125439</v>
+        <v>131704</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>126102</v>
+        <v>132611</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>126812</v>
+        <v>132812</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>127071</v>
+        <v>132968</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>127125</v>
+        <v>133117</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>127398</v>
+        <v>133270</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>130010</v>
+        <v>133494</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>130166</v>
+        <v>133508</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>131704</v>
+        <v>134199</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>132611</v>
+        <v>134682</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>132812</v>
+        <v>134941</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>132968</v>
+        <v>135128</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>133117</v>
+        <v>136350</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>133245</v>
+        <v>139684</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>133270</v>
+        <v>141319</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>133494</v>
+        <v>148017</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>133508</v>
+        <v>148430</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>134199</v>
+        <v>149214</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>134682</v>
+        <v>149284</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>134941</v>
+        <v>149446</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>135128</v>
+        <v>149827</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>139684</v>
+        <v>150364</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>141319</v>
+        <v>150424</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>148017</v>
+        <v>150537</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>148430</v>
+        <v>150807</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>149214</v>
+        <v>150850</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>149284</v>
+        <v>151017</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>149446</v>
+        <v>151309</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>149568</v>
+        <v>151954</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>149827</v>
+        <v>152152</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>150364</v>
+        <v>152500</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>150424</v>
+        <v>152985</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>150537</v>
+        <v>153109</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>150807</v>
+        <v>153477</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>150850</v>
+        <v>154121</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>151017</v>
+        <v>154222</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>151309</v>
+        <v>154794</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>151954</v>
+        <v>155091</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>152152</v>
+        <v>155219</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>152500</v>
+        <v>155405</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>152985</v>
+        <v>155557</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>153109</v>
+        <v>156141</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>153222</v>
+        <v>156218</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>153477</v>
+        <v>156698</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>154222</v>
+        <v>156770</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>154794</v>
+        <v>157089</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>155091</v>
+        <v>157273</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>155219</v>
+        <v>157434</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>155405</v>
+        <v>157454</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>155557</v>
+        <v>158706</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>156141</v>
+        <v>159075</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>156218</v>
+        <v>159698</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>156698</v>
+        <v>159982</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>156770</v>
+        <v>160206</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>157273</v>
+        <v>160316</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>157434</v>
+        <v>162937</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>157454</v>
+        <v>162952</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>158706</v>
+        <v>163310</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>159075</v>
+        <v>163649</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>159698</v>
+        <v>163739</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>159982</v>
+        <v>163819</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>160206</v>
+        <v>164052</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>160316</v>
+        <v>164245</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>162564</v>
+        <v>164642</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>162937</v>
+        <v>165517</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>162952</v>
+        <v>165705</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>163310</v>
+        <v>165780</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>163649</v>
+        <v>166126</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>163819</v>
+        <v>166567</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>164052</v>
+        <v>174957</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>164642</v>
+        <v>175075</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>164909</v>
+        <v>175524</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>165517</v>
+        <v>175989</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>165705</v>
+        <v>176380</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>165780</v>
+        <v>177587</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>166126</v>
+        <v>177612</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>166567</v>
+        <v>179680</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>174957</v>
+        <v>179803</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>175075</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>175524</v>
+        <v>180021</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>175989</v>
+        <v>181487</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>176380</v>
+        <v>181495</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>177587</v>
+        <v>182090</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>177612</v>
+        <v>182740</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>179680</v>
+        <v>183152</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>179803</v>
+        <v>183389</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>180000</v>
+        <v>183901</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>180021</v>
+        <v>183918</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>181487</v>
+        <v>183936</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>181495</v>
+        <v>184146</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>182090</v>
+        <v>184322</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>182570</v>
+        <v>184615</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>182740</v>
+        <v>184654</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>183152</v>
+        <v>185127</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>183389</v>
+        <v>185425</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>183901</v>
+        <v>185538</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>183918</v>
+        <v>185726</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>183936</v>
+        <v>186996</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>184146</v>
+        <v>187879</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>184322</v>
+        <v>188480</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>184615</v>
+        <v>189251</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>184654</v>
+        <v>189968</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>185127</v>
+        <v>190849</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>185425</v>
+        <v>191952</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>185538</v>
+        <v>192563</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>185726</v>
+        <v>193085</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>186974</v>
+        <v>193725</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>186996</v>
+        <v>193804</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>187756</v>
+        <v>193989</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>187879</v>
+        <v>195046</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>188480</v>
+        <v>195175</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>189251</v>
+        <v>195700</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>189968</v>
+        <v>195845</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>190849</v>
+        <v>196338</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>192079</v>
+        <v>196781</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>192563</v>
+        <v>197042</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>193085</v>
+        <v>197366</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>193725</v>
+        <v>198127</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>193804</v>
+        <v>198869</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>193989</v>
+        <v>199143</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>195046</v>
+        <v>199437</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>195175</v>
+        <v>200029</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>195700</v>
+        <v>200574</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>195845</v>
+        <v>200777</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>196338</v>
+        <v>201709</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>196781</v>
+        <v>201774</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>197042</v>
+        <v>203335</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>197366</v>
+        <v>203596</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>198127</v>
+        <v>203946</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>198869</v>
+        <v>203964</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>199143</v>
+        <v>204248</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>199437</v>
+        <v>204541</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>199458</v>
+        <v>205580</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>200029</v>
+        <v>205728</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>200458</v>
+        <v>205878</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>200574</v>
+        <v>206232</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>200777</v>
+        <v>207269</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>200904</v>
+        <v>207424</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>201180</v>
+        <v>207895</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>201709</v>
+        <v>207988</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>201774</v>
+        <v>208212</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>202691</v>
+        <v>209677</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>203018</v>
+        <v>210705</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>203335</v>
+        <v>211350</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>203596</v>
+        <v>211459</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>203946</v>
+        <v>212456</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>203964</v>
+        <v>212475</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>204248</v>
+        <v>212933</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>204541</v>
+        <v>213209</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>204911</v>
+        <v>213709</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>205580</v>
+        <v>214076</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>205878</v>
+        <v>214450</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>206022</v>
+        <v>214509</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>206232</v>
+        <v>215099</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>207269</v>
+        <v>215474</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>207424</v>
+        <v>215641</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>207895</v>
+        <v>215791</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>208212</v>
+        <v>215818</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>209677</v>
+        <v>216147</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>210705</v>
+        <v>216265</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>211350</v>
+        <v>216311</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>211459</v>
+        <v>216623</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>212456</v>
+        <v>217595</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>212475</v>
+        <v>217749</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>212933</v>
+        <v>218546</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>213209</v>
+        <v>219452</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>213709</v>
+        <v>220371</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>213839</v>
+        <v>221915</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>214076</v>
+        <v>222194</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>214450</v>
+        <v>222606</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>214509</v>
+        <v>222830</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>215099</v>
+        <v>222876</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>215474</v>
+        <v>223495</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>215641</v>
+        <v>223996</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>215791</v>
+        <v>224998</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>215818</v>
+        <v>225013</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>216265</v>
+        <v>225198</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>216311</v>
+        <v>226182</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>216623</v>
+        <v>226579</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>216979</v>
+        <v>228390</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>217595</v>
+        <v>228642</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>217749</v>
+        <v>229951</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>218546</v>
+        <v>230063</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>219452</v>
+        <v>230455</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>220292</v>
+        <v>230558</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>221881</v>
+        <v>230950</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>221915</v>
+        <v>231224</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>222194</v>
+        <v>231269</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>222606</v>
+        <v>231387</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>222830</v>
+        <v>232769</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>222876</v>
+        <v>233078</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>223495</v>
+        <v>233560</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>223996</v>
+        <v>233648</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>224998</v>
+        <v>233820</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>225013</v>
+        <v>233969</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>225198</v>
+        <v>234008</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>226182</v>
+        <v>234304</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>226579</v>
+        <v>235180</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>228390</v>
+        <v>235906</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>228642</v>
+        <v>236259</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>228818</v>
+        <v>236366</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>229094</v>
+        <v>236607</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>230063</v>
+        <v>237831</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>230455</v>
+        <v>238490</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>230558</v>
+        <v>238831</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>231224</v>
+        <v>239144</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>231269</v>
+        <v>239439</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>231387</v>
+        <v>239491</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>232769</v>
+        <v>239734</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>233078</v>
+        <v>240006</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>233560</v>
+        <v>240231</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>233648</v>
+        <v>241405</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>233820</v>
+        <v>241479</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>233969</v>
+        <v>243850</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>234008</v>
+        <v>244830</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>235180</v>
+        <v>245530</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>235906</v>
+        <v>245606</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>236259</v>
+        <v>245697</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>236366</v>
+        <v>247121</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>236607</v>
+        <v>247869</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>236723</v>
+        <v>247936</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>237831</v>
+        <v>248256</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>238490</v>
+        <v>248710</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>238831</v>
+        <v>248716</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>239144</v>
+        <v>249727</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>239439</v>
+        <v>249977</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>239734</v>
+        <v>250512</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>240006</v>
+        <v>250543</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>240231</v>
+        <v>251385</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>241405</v>
+        <v>252854</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>241479</v>
+        <v>253888</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>243850</v>
+        <v>255961</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>244830</v>
+        <v>256250</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>245530</v>
+        <v>257040</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>245606</v>
+        <v>257794</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>245697</v>
+        <v>258029</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>247121</v>
+        <v>258071</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>247869</v>
+        <v>258558</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>247936</v>
+        <v>258686</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>248256</v>
+        <v>259735</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>248710</v>
+        <v>260544</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>248716</v>
+        <v>261271</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>249727</v>
+        <v>261334</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>249977</v>
+        <v>261888</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>250512</v>
+        <v>261896</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>250543</v>
+        <v>262204</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>251385</v>
+        <v>262382</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>252854</v>
+        <v>262763</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>253888</v>
+        <v>264083</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>257040</v>
+        <v>265298</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>257794</v>
+        <v>269229</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>258029</v>
+        <v>269529</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>258071</v>
+        <v>269989</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>258558</v>
+        <v>270818</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>258686</v>
+        <v>272400</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>260223</v>
+        <v>272542</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>260544</v>
+        <v>272820</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>261271</v>
+        <v>274811</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>261334</v>
+        <v>275249</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>261888</v>
+        <v>275706</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>262382</v>
+        <v>276602</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>262763</v>
+        <v>278787</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>264083</v>
+        <v>278849</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>265298</v>
+        <v>278897</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>269229</v>
+        <v>287152</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>269529</v>
+        <v>287205</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>269989</v>
+        <v>287686</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>270818</v>
+        <v>288038</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>272400</v>
+        <v>290950</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>272542</v>
+        <v>291183</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>272820</v>
+        <v>291760</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>274811</v>
+        <v>291846</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>275706</v>
+        <v>293185</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>276602</v>
+        <v>293359</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>278029</v>
+        <v>294183</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>278787</v>
+        <v>295233</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>278849</v>
+        <v>295735</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>278897</v>
+        <v>297277</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>287152</v>
+        <v>297636</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>287205</v>
+        <v>299745</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>287686</v>
+        <v>300184</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>288038</v>
+        <v>300302</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>290950</v>
+        <v>301974</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>291760</v>
+        <v>302220</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>291846</v>
+        <v>305845</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>293185</v>
+        <v>306161</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>293359</v>
+        <v>306925</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>294183</v>
+        <v>308523</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>294951</v>
+        <v>308930</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>295233</v>
+        <v>308954</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>297277</v>
+        <v>309585</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>297636</v>
+        <v>310363</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>299745</v>
+        <v>310541</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>300184</v>
+        <v>311300</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>300302</v>
+        <v>311472</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>301974</v>
+        <v>313001</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>302220</v>
+        <v>313668</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>305845</v>
+        <v>313737</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>306161</v>
+        <v>314533</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>306925</v>
+        <v>315451</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>307268</v>
+        <v>316460</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>308523</v>
+        <v>316637</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>308930</v>
+        <v>316760</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>308954</v>
+        <v>317852</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>310363</v>
+        <v>319799</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>310541</v>
+        <v>319827</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>311300</v>
+        <v>322955</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>311472</v>
+        <v>323244</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>311555</v>
+        <v>323881</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>313001</v>
+        <v>323904</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>313737</v>
+        <v>326444</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>314533</v>
+        <v>326614</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>315451</v>
+        <v>328115</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>316460</v>
+        <v>328975</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>316637</v>
+        <v>329063</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>317852</v>
+        <v>329190</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>319799</v>
+        <v>330580</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>319827</v>
+        <v>330845</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>322955</v>
+        <v>332248</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>323244</v>
+        <v>333799</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>323881</v>
+        <v>335845</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>323904</v>
+        <v>335873</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>326444</v>
+        <v>336084</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>326614</v>
+        <v>337266</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>328975</v>
+        <v>337532</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>329063</v>
+        <v>338266</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>329190</v>
+        <v>338474</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>332248</v>
+        <v>339455</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>333340</v>
+        <v>340681</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>333516</v>
+        <v>341699</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>333630</v>
+        <v>341943</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>333799</v>
+        <v>342224</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>335845</v>
+        <v>344517</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>335873</v>
+        <v>344612</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>336084</v>
+        <v>345937</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>337266</v>
+        <v>346739</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>337532</v>
+        <v>347309</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>338266</v>
+        <v>348449</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>339455</v>
+        <v>348994</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>340681</v>
+        <v>350939</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>341699</v>
+        <v>352329</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>342224</v>
+        <v>352833</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>344517</v>
+        <v>353155</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>344612</v>
+        <v>353369</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>345937</v>
+        <v>355777</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>346739</v>
+        <v>357540</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>347309</v>
+        <v>359875</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>348449</v>
+        <v>360548</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>348994</v>
+        <v>360946</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>352329</v>
+        <v>361190</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>352833</v>
+        <v>361561</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>353155</v>
+        <v>361979</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>353369</v>
+        <v>362651</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>355777</v>
+        <v>363287</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>356998</v>
+        <v>364549</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>357540</v>
+        <v>364820</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>359875</v>
+        <v>366126</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>360548</v>
+        <v>366180</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>361190</v>
+        <v>366306</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>361561</v>
+        <v>366333</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>361979</v>
+        <v>367073</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>362651</v>
+        <v>367264</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>363287</v>
+        <v>368085</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>364549</v>
+        <v>371926</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>364820</v>
+        <v>373560</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>366180</v>
+        <v>375045</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>366306</v>
+        <v>377274</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>366333</v>
+        <v>377764</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>367073</v>
+        <v>378331</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>367264</v>
+        <v>380093</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>368085</v>
+        <v>381218</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>371926</v>
+        <v>381741</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>373942</v>
+        <v>383045</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>375045</v>
+        <v>383294</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>377274</v>
+        <v>383474</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>377764</v>
+        <v>383772</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>378331</v>
+        <v>386376</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>380093</v>
+        <v>386809</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>381218</v>
+        <v>387330</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>381741</v>
+        <v>387809</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>381807</v>
+        <v>387948</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>383045</v>
+        <v>388142</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>383294</v>
+        <v>388227</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>383474</v>
+        <v>390014</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>383772</v>
+        <v>390055</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>383942</v>
+        <v>391788</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>386376</v>
+        <v>392262</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>386809</v>
+        <v>392566</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>387330</v>
+        <v>392592</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>387809</v>
+        <v>392780</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>387948</v>
+        <v>392789</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>388142</v>
+        <v>394112</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>388227</v>
+        <v>394199</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>390014</v>
+        <v>395193</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>390055</v>
+        <v>395595</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>392262</v>
+        <v>395803</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>392566</v>
+        <v>396641</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>392592</v>
+        <v>398118</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>394112</v>
+        <v>399268</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>394199</v>
+        <v>400340</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>394335</v>
+        <v>400914</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>395092</v>
+        <v>400975</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>395193</v>
+        <v>401482</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>395595</v>
+        <v>401842</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>395803</v>
+        <v>402051</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>398118</v>
+        <v>402166</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>398120</v>
+        <v>403124</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>398860</v>
+        <v>403312</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>399268</v>
+        <v>403387</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>400340</v>
+        <v>406381</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>400914</v>
+        <v>410411</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>400975</v>
+        <v>411195</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>401482</v>
+        <v>411233</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>401842</v>
+        <v>412336</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>402051</v>
+        <v>412777</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>402166</v>
+        <v>413943</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>403312</v>
+        <v>414251</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>403387</v>
+        <v>414757</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>406381</v>
+        <v>417799</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>407016</v>
+        <v>430099</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>410411</v>
+        <v>430806</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>411195</v>
+        <v>431153</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>411233</v>
+        <v>431277</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>412336</v>
+        <v>434148</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>412777</v>
+        <v>436240</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>413943</v>
+        <v>436335</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>414251</v>
+        <v>436383</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>414757</v>
+        <v>436431</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>417799</v>
+        <v>436816</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>430099</v>
+        <v>442742</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>430806</v>
+        <v>445134</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>431153</v>
+        <v>445460</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>431277</v>
+        <v>446859</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>434148</v>
+        <v>449536</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>436240</v>
+        <v>451238</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>436335</v>
+        <v>451372</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>436383</v>
+        <v>451554</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>436431</v>
+        <v>451715</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>436816</v>
+        <v>453735</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>442742</v>
+        <v>455329</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>445134</v>
+        <v>456050</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>445460</v>
+        <v>457088</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>446859</v>
+        <v>463313</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>449536</v>
+        <v>464377</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>451238</v>
+        <v>464613</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>451372</v>
+        <v>465587</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>451554</v>
+        <v>466072</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>451715</v>
+        <v>466511</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>453735</v>
+        <v>467938</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>455329</v>
+        <v>467997</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>456050</v>
+        <v>468353</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>457088</v>
+        <v>468624</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>463313</v>
+        <v>469385</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>464377</v>
+        <v>471101</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>464613</v>
+        <v>471616</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>465587</v>
+        <v>471932</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>466072</v>
+        <v>471934</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>466511</v>
+        <v>472173</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>467938</v>
+        <v>472441</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>467997</v>
+        <v>472484</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>468168</v>
+        <v>472585</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>468353</v>
+        <v>473193</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>468624</v>
+        <v>473412</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>469385</v>
+        <v>474499</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>471616</v>
+        <v>475553</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>471932</v>
+        <v>475973</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>471934</v>
+        <v>477134</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>472173</v>
+        <v>477264</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>472220</v>
+        <v>478589</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>472441</v>
+        <v>479327</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>472484</v>
+        <v>480596</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>472585</v>
+        <v>484079</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>473193</v>
+        <v>485257</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>473412</v>
+        <v>485884</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>474499</v>
+        <v>486132</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>475553</v>
+        <v>486192</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>475973</v>
+        <v>488208</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>477134</v>
+        <v>488619</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>477264</v>
+        <v>490349</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>478589</v>
+        <v>490616</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>479327</v>
+        <v>492089</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>480596</v>
+        <v>492195</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>481615</v>
+        <v>492322</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>484079</v>
+        <v>493252</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>485257</v>
+        <v>493451</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>485884</v>
+        <v>495287</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>486132</v>
+        <v>496126</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>486192</v>
+        <v>496961</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>488208</v>
+        <v>497640</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>488619</v>
+        <v>497920</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>490616</v>
+        <v>497938</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>492089</v>
+        <v>499172</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>492195</v>
+        <v>499329</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>492322</v>
+        <v>499502</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>493252</v>
+        <v>502748</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>493451</v>
+        <v>502961</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>495287</v>
+        <v>505334</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>496126</v>
+        <v>505905</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>496961</v>
+        <v>506588</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>497640</v>
+        <v>508616</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>497920</v>
+        <v>508914</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>497938</v>
+        <v>510351</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>499172</v>
+        <v>511016</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>499329</v>
+        <v>512422</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>499502</v>
+        <v>513058</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>499822</v>
+        <v>513696</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>502748</v>
+        <v>515990</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>502961</v>
+        <v>516170</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>504344</v>
+        <v>519378</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>505334</v>
+        <v>524917</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>505905</v>
+        <v>527413</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>506403</v>
+        <v>528789</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>506588</v>
+        <v>535426</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>508616</v>
+        <v>535564</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>508914</v>
+        <v>536554</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>510351</v>
+        <v>539076</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>511016</v>
+        <v>539224</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>512422</v>
+        <v>540549</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>513058</v>
+        <v>541349</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>515990</v>
+        <v>541571</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>516170</v>
+        <v>541971</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>519378</v>
+        <v>541984</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>520164</v>
+        <v>543404</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>524917</v>
+        <v>543726</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>527413</v>
+        <v>546529</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>528789</v>
+        <v>548517</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>534708</v>
+        <v>549973</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>535564</v>
+        <v>551374</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>536554</v>
+        <v>551973</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>539076</v>
+        <v>554415</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>539224</v>
+        <v>557256</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>540549</v>
+        <v>557558</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>541349</v>
+        <v>558830</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>541571</v>
+        <v>561968</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>541971</v>
+        <v>562742</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>541984</v>
+        <v>563479</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>543404</v>
+        <v>564537</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>543726</v>
+        <v>566965</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>546529</v>
+        <v>568108</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>548517</v>
+        <v>569145</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>549973</v>
+        <v>573081</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>551374</v>
+        <v>573356</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>551973</v>
+        <v>574124</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>554366</v>
+        <v>582269</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>554415</v>
+        <v>584131</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>554563</v>
+        <v>584740</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>557256</v>
+        <v>585135</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>557558</v>
+        <v>586055</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>558830</v>
+        <v>586748</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>562742</v>
+        <v>589602</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>564537</v>
+        <v>592753</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>566965</v>
+        <v>593158</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>568108</v>
+        <v>594052</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>569145</v>
+        <v>597565</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>573081</v>
+        <v>598076</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>573356</v>
+        <v>600029</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>574124</v>
+        <v>602243</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>580356</v>
+        <v>602525</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>582269</v>
+        <v>609581</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>584131</v>
+        <v>612864</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>584740</v>
+        <v>617385</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>586055</v>
+        <v>618737</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>586748</v>
+        <v>621142</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>589602</v>
+        <v>623166</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>592753</v>
+        <v>628666</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>593158</v>
+        <v>636052</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>594052</v>
+        <v>639052</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>597565</v>
+        <v>640953</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>598076</v>
+        <v>641504</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>602243</v>
+        <v>651105</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>602525</v>
+        <v>651667</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>609581</v>
+        <v>651928</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>612864</v>
+        <v>653169</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>617385</v>
+        <v>656482</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>621142</v>
+        <v>656718</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>623166</v>
+        <v>658298</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>628666</v>
+        <v>660951</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>634725</v>
+        <v>661729</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>636052</v>
+        <v>661743</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>639052</v>
+        <v>665316</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>640953</v>
+        <v>665406</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>651105</v>
+        <v>665841</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>651667</v>
+        <v>666146</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>651928</v>
+        <v>669070</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>653169</v>
+        <v>669243</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>656482</v>
+        <v>670912</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>656718</v>
+        <v>671177</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>658298</v>
+        <v>671611</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>660951</v>
+        <v>672503</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>661729</v>
+        <v>673734</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>661743</v>
+        <v>673972</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>665316</v>
+        <v>674821</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>665406</v>
+        <v>674974</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>665841</v>
+        <v>676287</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>666146</v>
+        <v>677456</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>669070</v>
+        <v>680900</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>670912</v>
+        <v>681031</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>671177</v>
+        <v>681994</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>671611</v>
+        <v>683617</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>672503</v>
+        <v>685316</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>673734</v>
+        <v>687274</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>673972</v>
+        <v>688744</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>674821</v>
+        <v>689306</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>674974</v>
+        <v>689360</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>676287</v>
+        <v>690104</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>677456</v>
+        <v>691587</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>679978</v>
+        <v>692858</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>680900</v>
+        <v>693092</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>681031</v>
+        <v>693821</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>681994</v>
+        <v>695289</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>683617</v>
+        <v>700514</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>685316</v>
+        <v>701390</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>687274</v>
+        <v>702891</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>688744</v>
+        <v>712119</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>689306</v>
+        <v>713078</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>689360</v>
+        <v>713689</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>690104</v>
+        <v>715108</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>691092</v>
+        <v>715408</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>691587</v>
+        <v>715881</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>692858</v>
+        <v>718199</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>693092</v>
+        <v>720027</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>693821</v>
+        <v>720121</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>695289</v>
+        <v>720466</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>700514</v>
+        <v>722683</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>701390</v>
+        <v>724548</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>701990</v>
+        <v>726641</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>702891</v>
+        <v>726742</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>712119</v>
+        <v>728007</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>713078</v>
+        <v>729031</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>713689</v>
+        <v>731740</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>715108</v>
+        <v>734183</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>715408</v>
+        <v>736031</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>715881</v>
+        <v>738681</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>718199</v>
+        <v>739224</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>720027</v>
+        <v>740240</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>720121</v>
+        <v>740639</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>720466</v>
+        <v>743411</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>722683</v>
+        <v>744202</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>723630</v>
+        <v>745776</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>724548</v>
+        <v>746201</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>725353</v>
+        <v>746659</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>726641</v>
+        <v>748350</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>726742</v>
+        <v>748624</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>728007</v>
+        <v>751016</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>729031</v>
+        <v>753257</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>730971</v>
+        <v>754330</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>731740</v>
+        <v>754975</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>734183</v>
+        <v>760953</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>736031</v>
+        <v>762264</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>738681</v>
+        <v>762631</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>740240</v>
+        <v>763463</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>740639</v>
+        <v>763558</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>743411</v>
+        <v>764760</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>744202</v>
+        <v>765025</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>745776</v>
+        <v>768928</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>746201</v>
+        <v>769691</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>746659</v>
+        <v>771993</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>748350</v>
+        <v>772540</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>748624</v>
+        <v>773431</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>754975</v>
+        <v>783072</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>760953</v>
+        <v>785808</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>761617</v>
+        <v>788525</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>762264</v>
+        <v>792455</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>762631</v>
+        <v>804571</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>763558</v>
+        <v>825651</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>765025</v>
+        <v>852434</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>768928</v>
+        <v>853215</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>769691</v>
+        <v>855229</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>771993</v>
+        <v>856312</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>773431</v>
+        <v>857392</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>783072</v>
+        <v>857977</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>785808</v>
+        <v>858572</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>792455</v>
+        <v>859750</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>825651</v>
+        <v>862883</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>852434</v>
+        <v>864304</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>855229</v>
+        <v>871315</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>856312</v>
+        <v>883458</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>857392</v>
+        <v>886020</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>857977</v>
+        <v>887265</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>858572</v>
+        <v>891955</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>859750</v>
+        <v>894467</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>862883</v>
+        <v>898559</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>864080</v>
+        <v>899179</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>868635</v>
+        <v>900587</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>871089</v>
+        <v>902437</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>871100</v>
+        <v>907796</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>871315</v>
+        <v>909356</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>883458</v>
+        <v>911000</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>886020</v>
+        <v>914520</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>891955</v>
+        <v>915890</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>898559</v>
+        <v>915963</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>899179</v>
+        <v>916223</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>900587</v>
+        <v>921212</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>902437</v>
+        <v>931855</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>907796</v>
+        <v>932340</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>909356</v>
+        <v>934734</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>911000</v>
+        <v>937438</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>914520</v>
+        <v>937538</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>915890</v>
+        <v>938560</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>915963</v>
+        <v>940024</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>921212</v>
+        <v>947270</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>931855</v>
+        <v>951757</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>932340</v>
+        <v>952962</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>934734</v>
+        <v>957121</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>937438</v>
+        <v>957477</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>937538</v>
+        <v>957557</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>940024</v>
+        <v>957630</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>947270</v>
+        <v>957936</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>951757</v>
+        <v>958185</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>952962</v>
+        <v>958218</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>957121</v>
+        <v>958897</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>957477</v>
+        <v>959606</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>957557</v>
+        <v>960356</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>957630</v>
+        <v>960641</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>957936</v>
+        <v>961661</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>958185</v>
+        <v>961704</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>958218</v>
+        <v>962032</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>958897</v>
+        <v>962080</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>959606</v>
+        <v>962168</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>960641</v>
+        <v>962401</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>961661</v>
+        <v>962432</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>961704</v>
+        <v>962759</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>962032</v>
+        <v>962815</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>962080</v>
+        <v>962839</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>962168</v>
+        <v>964137</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>962401</v>
+        <v>964142</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>962759</v>
+        <v>964159</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>962815</v>
+        <v>964163</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>962839</v>
+        <v>964169</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>964137</v>
+        <v>964549</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>964142</v>
+        <v>964898</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>964159</v>
+        <v>965195</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>964163</v>
+        <v>965313</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>964549</v>
+        <v>965401</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>964898</v>
+        <v>966440</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>965195</v>
+        <v>967165</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>965313</v>
+        <v>967686</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>965401</v>
+        <v>970145</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>966440</v>
-      </c>
-    </row>
-    <row r="844" spans="1:1">
-      <c r="A844">
-        <v>967165</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1">
-      <c r="A845">
-        <v>967686</v>
+        <v>972955</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3153_list.xlsx
+++ b/WS_tags/tag_3153_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A843"/>
+  <dimension ref="A1:A796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,4197 +402,3962 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>29774</v>
+        <v>47956</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>47956</v>
+        <v>57805</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>56957</v>
+        <v>58348</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>57805</v>
+        <v>59393</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>58348</v>
+        <v>60690</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>59393</v>
+        <v>67761</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>60690</v>
+        <v>68641</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>67761</v>
+        <v>71223</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>68641</v>
+        <v>71481</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>71223</v>
+        <v>72009</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>71481</v>
+        <v>73321</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>72009</v>
+        <v>73515</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>73321</v>
+        <v>73605</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>73515</v>
+        <v>75671</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>73605</v>
+        <v>75966</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>75671</v>
+        <v>79310</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>75966</v>
+        <v>79825</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>79310</v>
+        <v>80438</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>79825</v>
+        <v>82154</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>80438</v>
+        <v>82847</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>82154</v>
+        <v>83130</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>82847</v>
+        <v>83506</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>83130</v>
+        <v>84703</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>83506</v>
+        <v>85494</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>84703</v>
+        <v>85871</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>85494</v>
+        <v>87552</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>85871</v>
+        <v>88079</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>86320</v>
+        <v>88290</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>87552</v>
+        <v>89650</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>88079</v>
+        <v>90123</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>88290</v>
+        <v>90616</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>89650</v>
+        <v>91002</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>90123</v>
+        <v>91290</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>90616</v>
+        <v>91391</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>91002</v>
+        <v>92216</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>91391</v>
+        <v>92630</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>92216</v>
+        <v>92816</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>92816</v>
+        <v>93063</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>93063</v>
+        <v>94470</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>94470</v>
+        <v>95084</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>95084</v>
+        <v>95631</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>95631</v>
+        <v>95981</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>95981</v>
+        <v>96021</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>96021</v>
+        <v>97388</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>97388</v>
+        <v>97460</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>97460</v>
+        <v>98249</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>98249</v>
+        <v>98324</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>98324</v>
+        <v>98353</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>98353</v>
+        <v>100275</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>100275</v>
+        <v>100565</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>100565</v>
+        <v>100925</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>100925</v>
+        <v>102931</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>101812</v>
+        <v>105181</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>102931</v>
+        <v>106933</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>103414</v>
+        <v>107558</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>105181</v>
+        <v>107997</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>106933</v>
+        <v>108170</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>107558</v>
+        <v>109089</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>107997</v>
+        <v>109969</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>108170</v>
+        <v>110358</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>109089</v>
+        <v>110570</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>109969</v>
+        <v>110640</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>110358</v>
+        <v>110849</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>110570</v>
+        <v>111220</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>110640</v>
+        <v>111704</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>110848</v>
+        <v>113051</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>110849</v>
+        <v>114305</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>111220</v>
+        <v>114552</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>111704</v>
+        <v>114644</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>113051</v>
+        <v>114843</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>113697</v>
+        <v>114985</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>113911</v>
+        <v>117471</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>114305</v>
+        <v>117598</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>114552</v>
+        <v>117874</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>114644</v>
+        <v>118119</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>114843</v>
+        <v>118300</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>114985</v>
+        <v>118871</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>117471</v>
+        <v>118919</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>117542</v>
+        <v>119109</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>117598</v>
+        <v>119411</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>117874</v>
+        <v>119678</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>118119</v>
+        <v>120671</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>118300</v>
+        <v>120693</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>118871</v>
+        <v>120828</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>118919</v>
+        <v>123131</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>119109</v>
+        <v>123826</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>119411</v>
+        <v>125437</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>119678</v>
+        <v>126102</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>120671</v>
+        <v>126812</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>120693</v>
+        <v>127071</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>120828</v>
+        <v>127125</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>123131</v>
+        <v>127398</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>123136</v>
+        <v>127838</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>123826</v>
+        <v>130010</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>125437</v>
+        <v>131704</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>126102</v>
+        <v>132611</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>126812</v>
+        <v>132812</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>127071</v>
+        <v>132968</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>127125</v>
+        <v>133117</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>127398</v>
+        <v>133270</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>131704</v>
+        <v>133494</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>132611</v>
+        <v>133508</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>132812</v>
+        <v>134199</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>132968</v>
+        <v>134682</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>133117</v>
+        <v>134941</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>133270</v>
+        <v>135128</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>133494</v>
+        <v>139684</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>133508</v>
+        <v>141319</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>134199</v>
+        <v>148017</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>134682</v>
+        <v>148430</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>134941</v>
+        <v>149214</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>135128</v>
+        <v>149284</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>136350</v>
+        <v>149446</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>139684</v>
+        <v>149648</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>141319</v>
+        <v>149827</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>148017</v>
+        <v>150364</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>148430</v>
+        <v>150424</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>149214</v>
+        <v>150537</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>149284</v>
+        <v>150850</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>149446</v>
+        <v>151017</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>149827</v>
+        <v>151309</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>150364</v>
+        <v>152152</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>150424</v>
+        <v>152500</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>150537</v>
+        <v>153109</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>150807</v>
+        <v>154121</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>150850</v>
+        <v>154222</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>151017</v>
+        <v>154794</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>151309</v>
+        <v>155091</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>151954</v>
+        <v>155219</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>152152</v>
+        <v>155405</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>152500</v>
+        <v>155557</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>152985</v>
+        <v>156141</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>153109</v>
+        <v>156218</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>153477</v>
+        <v>156335</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>154121</v>
+        <v>156698</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>154222</v>
+        <v>156770</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>154794</v>
+        <v>157273</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>155091</v>
+        <v>157434</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>155219</v>
+        <v>158706</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>155405</v>
+        <v>159075</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>155557</v>
+        <v>159698</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>156141</v>
+        <v>159982</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>156218</v>
+        <v>160206</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>156698</v>
+        <v>160316</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>156770</v>
+        <v>162937</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>157089</v>
+        <v>163310</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>157273</v>
+        <v>163649</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>157434</v>
+        <v>163739</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>157454</v>
+        <v>163819</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>158706</v>
+        <v>164052</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>159075</v>
+        <v>164245</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>159698</v>
+        <v>164642</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>159982</v>
+        <v>165517</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>160206</v>
+        <v>165705</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>160316</v>
+        <v>165780</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>162937</v>
+        <v>166126</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>162952</v>
+        <v>166567</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>163310</v>
+        <v>174957</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>163649</v>
+        <v>175075</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>163739</v>
+        <v>175524</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>163819</v>
+        <v>175989</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>164052</v>
+        <v>176380</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>164245</v>
+        <v>177587</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>164642</v>
+        <v>177612</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>165517</v>
+        <v>179680</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>165705</v>
+        <v>179803</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>165780</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>166126</v>
+        <v>180021</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>166567</v>
+        <v>181487</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>174957</v>
+        <v>182090</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>175075</v>
+        <v>182740</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>175524</v>
+        <v>183152</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>175989</v>
+        <v>183389</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>176380</v>
+        <v>183901</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>177587</v>
+        <v>183918</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>177612</v>
+        <v>183936</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>179680</v>
+        <v>184146</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>179803</v>
+        <v>184322</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>180000</v>
+        <v>184615</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>180021</v>
+        <v>184654</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>181487</v>
+        <v>184967</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>181495</v>
+        <v>185127</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>182090</v>
+        <v>185425</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>182740</v>
+        <v>185538</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>183152</v>
+        <v>185726</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>183389</v>
+        <v>186996</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>183901</v>
+        <v>187879</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>183918</v>
+        <v>188480</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>183936</v>
+        <v>189038</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>184146</v>
+        <v>189251</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>184322</v>
+        <v>189968</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>184615</v>
+        <v>190849</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>184654</v>
+        <v>191952</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>185127</v>
+        <v>192563</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>185425</v>
+        <v>193085</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>185538</v>
+        <v>193725</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>185726</v>
+        <v>195046</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>186996</v>
+        <v>195175</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>187879</v>
+        <v>195700</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>188480</v>
+        <v>196338</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>189251</v>
+        <v>196781</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>189968</v>
+        <v>197042</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>190849</v>
+        <v>197366</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>191952</v>
+        <v>198127</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>192563</v>
+        <v>198162</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>193085</v>
+        <v>198526</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>193725</v>
+        <v>198869</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>193804</v>
+        <v>199143</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>193989</v>
+        <v>199437</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>195046</v>
+        <v>200029</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>195175</v>
+        <v>200574</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>195700</v>
+        <v>200904</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>195845</v>
+        <v>201709</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>196338</v>
+        <v>201774</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>196781</v>
+        <v>203335</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>197042</v>
+        <v>203596</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>197366</v>
+        <v>203946</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>198127</v>
+        <v>203964</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>198869</v>
+        <v>204248</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>199143</v>
+        <v>204541</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>199437</v>
+        <v>205580</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>200029</v>
+        <v>205728</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>200574</v>
+        <v>205878</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>200777</v>
+        <v>207269</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>201709</v>
+        <v>207424</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>201774</v>
+        <v>207895</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>203335</v>
+        <v>208212</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>203596</v>
+        <v>210705</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>203946</v>
+        <v>211350</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>203964</v>
+        <v>211459</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>204248</v>
+        <v>212456</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>204541</v>
+        <v>212475</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>205580</v>
+        <v>212933</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>205728</v>
+        <v>213209</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>205878</v>
+        <v>214076</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>206232</v>
+        <v>214450</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>207269</v>
+        <v>214509</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>207424</v>
+        <v>214582</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>207895</v>
+        <v>215474</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>207988</v>
+        <v>215641</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>208212</v>
+        <v>215791</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>209677</v>
+        <v>215818</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>210705</v>
+        <v>216147</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>211350</v>
+        <v>216265</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>211459</v>
+        <v>216623</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>212456</v>
+        <v>217595</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>212475</v>
+        <v>218546</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>212933</v>
+        <v>218962</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>213209</v>
+        <v>219452</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>213709</v>
+        <v>220371</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>214076</v>
+        <v>221915</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>214450</v>
+        <v>222194</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>214509</v>
+        <v>222606</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>215099</v>
+        <v>222830</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>215474</v>
+        <v>222876</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>215641</v>
+        <v>223996</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>215791</v>
+        <v>224998</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>215818</v>
+        <v>225013</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>216147</v>
+        <v>225198</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>216265</v>
+        <v>226182</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>216311</v>
+        <v>226579</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>216623</v>
+        <v>228390</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>217595</v>
+        <v>228642</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>217749</v>
+        <v>229094</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>218546</v>
+        <v>229951</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>219452</v>
+        <v>230063</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>220371</v>
+        <v>230455</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>221915</v>
+        <v>230558</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>222194</v>
+        <v>230950</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>222606</v>
+        <v>231224</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>222830</v>
+        <v>231269</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>222876</v>
+        <v>231387</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>223495</v>
+        <v>232769</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>223996</v>
+        <v>233078</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>224998</v>
+        <v>233560</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>225013</v>
+        <v>233648</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>225198</v>
+        <v>233820</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>226182</v>
+        <v>233969</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>226579</v>
+        <v>234008</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>228390</v>
+        <v>234304</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>228642</v>
+        <v>235180</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>229951</v>
+        <v>236366</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>230063</v>
+        <v>236607</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>230455</v>
+        <v>237831</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>230558</v>
+        <v>238490</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>230950</v>
+        <v>238831</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>231224</v>
+        <v>239144</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>231269</v>
+        <v>239439</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>231387</v>
+        <v>239491</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>232769</v>
+        <v>239734</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>233078</v>
+        <v>240006</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>233560</v>
+        <v>240231</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>233648</v>
+        <v>241405</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>233820</v>
+        <v>241479</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>233969</v>
+        <v>243850</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>234008</v>
+        <v>244830</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>234304</v>
+        <v>245530</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>235180</v>
+        <v>245606</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>235906</v>
+        <v>245697</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>236259</v>
+        <v>247121</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>236366</v>
+        <v>247936</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>236607</v>
+        <v>248256</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>237831</v>
+        <v>248710</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>238490</v>
+        <v>248716</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>238831</v>
+        <v>249727</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>239144</v>
+        <v>249977</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>239439</v>
+        <v>250512</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>239491</v>
+        <v>250543</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>239734</v>
+        <v>250898</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>240006</v>
+        <v>251385</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>240231</v>
+        <v>252854</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>241405</v>
+        <v>253888</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>241479</v>
+        <v>255961</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>243850</v>
+        <v>256250</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>244830</v>
+        <v>257040</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>245530</v>
+        <v>257794</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>245606</v>
+        <v>258029</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>245697</v>
+        <v>258071</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>247121</v>
+        <v>258558</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>247869</v>
+        <v>258677</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>247936</v>
+        <v>258686</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>248256</v>
+        <v>259735</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>248710</v>
+        <v>260544</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>248716</v>
+        <v>261271</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>249727</v>
+        <v>261334</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>249977</v>
+        <v>261888</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>250512</v>
+        <v>261896</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>250543</v>
+        <v>262204</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>251385</v>
+        <v>262382</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>252854</v>
+        <v>262763</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>253888</v>
+        <v>264083</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>255961</v>
+        <v>265298</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>256250</v>
+        <v>269229</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>257040</v>
+        <v>269529</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>257794</v>
+        <v>269989</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>258029</v>
+        <v>270818</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>258071</v>
+        <v>272400</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>258558</v>
+        <v>272542</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>258686</v>
+        <v>272820</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>259735</v>
+        <v>274811</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>260544</v>
+        <v>275249</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>261271</v>
+        <v>275706</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>261334</v>
+        <v>276602</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>261888</v>
+        <v>278787</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>261896</v>
+        <v>278897</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>262204</v>
+        <v>287152</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>262382</v>
+        <v>287205</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>262763</v>
+        <v>287686</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>264083</v>
+        <v>288038</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>265298</v>
+        <v>290950</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>269229</v>
+        <v>291183</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>269529</v>
+        <v>291760</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>269989</v>
+        <v>293185</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>270818</v>
+        <v>293359</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>272400</v>
+        <v>294183</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>272542</v>
+        <v>295233</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>272820</v>
+        <v>295735</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>274811</v>
+        <v>297277</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>275249</v>
+        <v>300184</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>275706</v>
+        <v>300302</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>276602</v>
+        <v>301974</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>278787</v>
+        <v>302220</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>278849</v>
+        <v>306161</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>278897</v>
+        <v>308523</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>287152</v>
+        <v>308930</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>287205</v>
+        <v>308954</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>287686</v>
+        <v>309585</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>288038</v>
+        <v>310363</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>290950</v>
+        <v>310541</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>291183</v>
+        <v>311300</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>291760</v>
+        <v>311472</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>291846</v>
+        <v>313001</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>293185</v>
+        <v>313737</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>293359</v>
+        <v>314533</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>294183</v>
+        <v>315451</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>295233</v>
+        <v>316460</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>295735</v>
+        <v>316637</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>297277</v>
+        <v>316760</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>297636</v>
+        <v>317852</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>299745</v>
+        <v>319827</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>300184</v>
+        <v>322955</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>300302</v>
+        <v>323244</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>301974</v>
+        <v>323881</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>302220</v>
+        <v>323904</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>305845</v>
+        <v>326444</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>306161</v>
+        <v>326614</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>306925</v>
+        <v>328115</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>308523</v>
+        <v>328975</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>308930</v>
+        <v>329190</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>308954</v>
+        <v>330580</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>309585</v>
+        <v>330845</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>310363</v>
+        <v>332248</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>310541</v>
+        <v>333799</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>311300</v>
+        <v>335845</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>311472</v>
+        <v>335873</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>313001</v>
+        <v>336084</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>313668</v>
+        <v>337266</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>313737</v>
+        <v>337532</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>314533</v>
+        <v>338266</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>315451</v>
+        <v>339455</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>316460</v>
+        <v>340681</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>316637</v>
+        <v>341699</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>316760</v>
+        <v>341943</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>317852</v>
+        <v>342224</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>319799</v>
+        <v>344517</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>319827</v>
+        <v>344612</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>322955</v>
+        <v>345937</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>323244</v>
+        <v>346739</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>323881</v>
+        <v>347309</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>323904</v>
+        <v>348449</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>326444</v>
+        <v>348994</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>326614</v>
+        <v>350939</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>328115</v>
+        <v>352833</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>328975</v>
+        <v>353155</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>329063</v>
+        <v>353369</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>329190</v>
+        <v>355058</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>330580</v>
+        <v>355777</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>330845</v>
+        <v>357540</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>332248</v>
+        <v>359875</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>333799</v>
+        <v>360548</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>335845</v>
+        <v>360946</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>335873</v>
+        <v>361190</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>336084</v>
+        <v>361979</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>337266</v>
+        <v>362651</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>337532</v>
+        <v>363287</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>338266</v>
+        <v>364480</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>338474</v>
+        <v>364549</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>339455</v>
+        <v>364820</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>340681</v>
+        <v>366180</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>341699</v>
+        <v>366306</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>341943</v>
+        <v>366333</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>342224</v>
+        <v>367073</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>344517</v>
+        <v>367264</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>344612</v>
+        <v>368085</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>345937</v>
+        <v>371926</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>346739</v>
+        <v>373560</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>347309</v>
+        <v>375045</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>348449</v>
+        <v>377274</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>348994</v>
+        <v>377391</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>350939</v>
+        <v>377764</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>352329</v>
+        <v>378331</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>352833</v>
+        <v>380093</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>353155</v>
+        <v>381218</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>353369</v>
+        <v>381741</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>355777</v>
+        <v>383045</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>357540</v>
+        <v>383294</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>359875</v>
+        <v>383474</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>360548</v>
+        <v>383772</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>360946</v>
+        <v>386376</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>361190</v>
+        <v>386809</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>361561</v>
+        <v>387330</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>361979</v>
+        <v>387809</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>362651</v>
+        <v>387948</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>363287</v>
+        <v>388227</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>364549</v>
+        <v>390014</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>364820</v>
+        <v>390055</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>366126</v>
+        <v>392566</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>366180</v>
+        <v>392592</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>366306</v>
+        <v>392789</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>366333</v>
+        <v>394112</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>367073</v>
+        <v>394199</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>367264</v>
+        <v>394335</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>368085</v>
+        <v>395193</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>371926</v>
+        <v>395595</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>373560</v>
+        <v>395803</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>375045</v>
+        <v>396641</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>377274</v>
+        <v>398120</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>377764</v>
+        <v>400340</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>378331</v>
+        <v>400914</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>380093</v>
+        <v>400975</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>381218</v>
+        <v>401482</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>381741</v>
+        <v>401842</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>383045</v>
+        <v>402051</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>383294</v>
+        <v>402166</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>383474</v>
+        <v>403124</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>383772</v>
+        <v>403312</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>386376</v>
+        <v>403387</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>386809</v>
+        <v>406381</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>387330</v>
+        <v>410411</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>387809</v>
+        <v>411195</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>387948</v>
+        <v>411233</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>388142</v>
+        <v>412336</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>388227</v>
+        <v>412777</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>390014</v>
+        <v>413943</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>390055</v>
+        <v>414757</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>391788</v>
+        <v>416388</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>392262</v>
+        <v>430099</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>392566</v>
+        <v>430806</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>392592</v>
+        <v>431153</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>392780</v>
+        <v>431277</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>392789</v>
+        <v>436240</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>394112</v>
+        <v>436335</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>394199</v>
+        <v>436383</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>395193</v>
+        <v>436431</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>395595</v>
+        <v>436816</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>395803</v>
+        <v>442742</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>396641</v>
+        <v>445134</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>398118</v>
+        <v>445460</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>399268</v>
+        <v>446859</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>400340</v>
+        <v>449536</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>400914</v>
+        <v>451238</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>400975</v>
+        <v>451372</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>401482</v>
+        <v>451715</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>401842</v>
+        <v>453735</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>402051</v>
+        <v>455329</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>402166</v>
+        <v>456050</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>403124</v>
+        <v>457088</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>403312</v>
+        <v>459849</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>403387</v>
+        <v>463313</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>406381</v>
+        <v>464377</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>410411</v>
+        <v>464613</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>411195</v>
+        <v>465587</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>411233</v>
+        <v>466072</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>412336</v>
+        <v>466511</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>412777</v>
+        <v>467938</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>413943</v>
+        <v>467997</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>414251</v>
+        <v>468353</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>414757</v>
+        <v>468624</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>417799</v>
+        <v>469385</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>430099</v>
+        <v>471101</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>430806</v>
+        <v>471616</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>431153</v>
+        <v>471932</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>431277</v>
+        <v>471934</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>434148</v>
+        <v>472057</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>436240</v>
+        <v>472173</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>436335</v>
+        <v>472441</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>436383</v>
+        <v>472484</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>436431</v>
+        <v>472585</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>436816</v>
+        <v>473193</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>442742</v>
+        <v>473412</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>445134</v>
+        <v>474499</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>445460</v>
+        <v>475553</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>446859</v>
+        <v>475973</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>449536</v>
+        <v>477134</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>451238</v>
+        <v>477264</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>451372</v>
+        <v>478589</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>451554</v>
+        <v>479327</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>451715</v>
+        <v>480596</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>453735</v>
+        <v>484079</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>455329</v>
+        <v>485257</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>456050</v>
+        <v>485884</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>457088</v>
+        <v>486132</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>463313</v>
+        <v>488208</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>464377</v>
+        <v>488619</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>464613</v>
+        <v>490349</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>465587</v>
+        <v>490616</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>466072</v>
+        <v>492089</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>466511</v>
+        <v>492195</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>467938</v>
+        <v>492322</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>467997</v>
+        <v>493252</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>468353</v>
+        <v>493451</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>468624</v>
+        <v>493923</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>469385</v>
+        <v>495287</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>471101</v>
+        <v>496126</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>471616</v>
+        <v>496961</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>471932</v>
+        <v>497640</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>471934</v>
+        <v>497920</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>472173</v>
+        <v>497938</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>472441</v>
+        <v>499172</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>472484</v>
+        <v>499502</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>472585</v>
+        <v>502748</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>473193</v>
+        <v>502961</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>473412</v>
+        <v>508616</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>474499</v>
+        <v>508914</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>475553</v>
+        <v>510351</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>475973</v>
+        <v>511016</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>477134</v>
+        <v>512422</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>477264</v>
+        <v>513058</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>478589</v>
+        <v>513696</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>479327</v>
+        <v>519378</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>480596</v>
+        <v>521998</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>484079</v>
+        <v>522579</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>485257</v>
+        <v>524917</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>485884</v>
+        <v>527413</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>486132</v>
+        <v>528789</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>486192</v>
+        <v>528864</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>488208</v>
+        <v>535426</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>488619</v>
+        <v>535564</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>490349</v>
+        <v>536554</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>490616</v>
+        <v>539076</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>492089</v>
+        <v>539224</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>492195</v>
+        <v>540549</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>492322</v>
+        <v>541349</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>493252</v>
+        <v>541571</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>493451</v>
+        <v>541971</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>495287</v>
+        <v>541984</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>496126</v>
+        <v>543404</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>496961</v>
+        <v>543726</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>497640</v>
+        <v>546529</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>497920</v>
+        <v>548517</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>497938</v>
+        <v>551374</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>499172</v>
+        <v>551973</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>499329</v>
+        <v>554415</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>499502</v>
+        <v>557256</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>502748</v>
+        <v>558830</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>502961</v>
+        <v>562742</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>505334</v>
+        <v>563479</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>505905</v>
+        <v>564537</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>506588</v>
+        <v>566965</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>508616</v>
+        <v>568108</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>508914</v>
+        <v>569145</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>510351</v>
+        <v>573081</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>511016</v>
+        <v>573356</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>512422</v>
+        <v>574124</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>513058</v>
+        <v>584131</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>513696</v>
+        <v>584740</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>515990</v>
+        <v>585135</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>516170</v>
+        <v>586055</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>519378</v>
+        <v>586748</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>524917</v>
+        <v>589602</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>527413</v>
+        <v>592753</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>528789</v>
+        <v>593158</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>535426</v>
+        <v>594052</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>535564</v>
+        <v>597565</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>536554</v>
+        <v>602243</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>539076</v>
+        <v>602525</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>539224</v>
+        <v>609581</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>540549</v>
+        <v>617385</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>541349</v>
+        <v>618737</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>541571</v>
+        <v>621142</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>541971</v>
+        <v>623166</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>541984</v>
+        <v>628666</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>543404</v>
+        <v>636052</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>543726</v>
+        <v>639052</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>546529</v>
+        <v>640953</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>548517</v>
+        <v>641504</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>549973</v>
+        <v>648815</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>551374</v>
+        <v>651105</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>551973</v>
+        <v>651928</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>554415</v>
+        <v>653169</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>557256</v>
+        <v>656482</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>557558</v>
+        <v>656718</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>558830</v>
+        <v>658298</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>561968</v>
+        <v>660951</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>562742</v>
+        <v>661729</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>563479</v>
+        <v>661743</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>564537</v>
+        <v>665316</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>566965</v>
+        <v>665841</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>568108</v>
+        <v>666146</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>569145</v>
+        <v>669243</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>573081</v>
+        <v>670912</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>573356</v>
+        <v>671177</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>574124</v>
+        <v>671611</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>582269</v>
+        <v>672503</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>584131</v>
+        <v>673734</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>584740</v>
+        <v>673972</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>585135</v>
+        <v>674821</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>586055</v>
+        <v>676287</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>586748</v>
+        <v>680900</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>589602</v>
+        <v>681031</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>592753</v>
+        <v>681994</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>593158</v>
+        <v>683617</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>594052</v>
+        <v>685316</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>597565</v>
+        <v>687274</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>598076</v>
+        <v>688744</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>600029</v>
+        <v>689306</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>602243</v>
+        <v>689360</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>602525</v>
+        <v>690104</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>609581</v>
+        <v>691587</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>612864</v>
+        <v>692858</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>617385</v>
+        <v>693092</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>618737</v>
+        <v>693821</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>621142</v>
+        <v>695289</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>623166</v>
+        <v>700514</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>628666</v>
+        <v>701390</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>636052</v>
+        <v>702891</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>639052</v>
+        <v>712119</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>640953</v>
+        <v>713078</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>641504</v>
+        <v>713689</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>651105</v>
+        <v>715108</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>651667</v>
+        <v>715408</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>651928</v>
+        <v>715881</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>653169</v>
+        <v>718199</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>656482</v>
+        <v>720027</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>656718</v>
+        <v>720121</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>658298</v>
+        <v>720466</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>660951</v>
+        <v>722683</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>661729</v>
+        <v>724548</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>661743</v>
+        <v>726641</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>665316</v>
+        <v>726742</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>665406</v>
+        <v>728007</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>665841</v>
+        <v>729031</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>666146</v>
+        <v>731740</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>669070</v>
+        <v>734183</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>669243</v>
+        <v>736031</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>670912</v>
+        <v>738681</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>671177</v>
+        <v>739224</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>671611</v>
+        <v>740639</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>672503</v>
+        <v>743411</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>673734</v>
+        <v>744202</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>673972</v>
+        <v>746201</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>674821</v>
+        <v>746659</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>674974</v>
+        <v>748350</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>676287</v>
+        <v>748624</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>677456</v>
+        <v>751016</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>680900</v>
+        <v>753257</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>681031</v>
+        <v>754330</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>681994</v>
+        <v>754975</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>683617</v>
+        <v>760953</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>685316</v>
+        <v>762631</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>687274</v>
+        <v>763463</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>688744</v>
+        <v>763558</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>689306</v>
+        <v>764760</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>689360</v>
+        <v>765025</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>690104</v>
+        <v>768928</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>691587</v>
+        <v>769130</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>692858</v>
+        <v>769691</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>693092</v>
+        <v>771993</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>693821</v>
+        <v>772540</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>695289</v>
+        <v>773431</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>700514</v>
+        <v>776710</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>701390</v>
+        <v>783072</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>702891</v>
+        <v>783181</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>712119</v>
+        <v>785808</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>713078</v>
+        <v>788525</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>713689</v>
+        <v>792455</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>715108</v>
+        <v>804571</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>715408</v>
+        <v>825651</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>715881</v>
+        <v>852434</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>718199</v>
+        <v>853215</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>720027</v>
+        <v>855229</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>720121</v>
+        <v>856312</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>720466</v>
+        <v>857392</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>722683</v>
+        <v>857977</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>724548</v>
+        <v>858572</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>726641</v>
+        <v>859750</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>726742</v>
+        <v>862883</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>728007</v>
+        <v>864304</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>729031</v>
+        <v>883458</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>731740</v>
+        <v>887265</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>734183</v>
+        <v>891955</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>736031</v>
+        <v>894467</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>738681</v>
+        <v>895806</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>739224</v>
+        <v>898559</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>740240</v>
+        <v>899179</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>740639</v>
+        <v>900587</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>743411</v>
+        <v>902437</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>744202</v>
+        <v>909356</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>745776</v>
+        <v>911000</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>746201</v>
+        <v>914520</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>746659</v>
+        <v>915890</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>748350</v>
+        <v>915963</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>748624</v>
+        <v>916223</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>751016</v>
+        <v>921212</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>753257</v>
+        <v>931855</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>754330</v>
+        <v>932340</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>754975</v>
+        <v>937438</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>760953</v>
+        <v>937538</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>762264</v>
+        <v>938560</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>762631</v>
+        <v>947270</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>763463</v>
+        <v>951757</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>763558</v>
+        <v>952962</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>764760</v>
+        <v>957121</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>765025</v>
+        <v>957477</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>768928</v>
+        <v>957557</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>769691</v>
+        <v>957630</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>771993</v>
+        <v>957936</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>772540</v>
+        <v>958185</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>773431</v>
+        <v>959606</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>783072</v>
+        <v>960356</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>785808</v>
+        <v>960641</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>788525</v>
+        <v>961661</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>792455</v>
+        <v>961704</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>804571</v>
+        <v>962032</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>825651</v>
+        <v>962080</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>852434</v>
+        <v>962168</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>853215</v>
+        <v>962401</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>855229</v>
+        <v>962432</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>856312</v>
+        <v>962759</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>857392</v>
+        <v>962815</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>857977</v>
+        <v>962839</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>858572</v>
+        <v>964137</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>859750</v>
+        <v>964142</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>862883</v>
+        <v>964159</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>864304</v>
+        <v>964163</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>871315</v>
+        <v>964169</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>883458</v>
+        <v>964549</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>886020</v>
+        <v>964898</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>887265</v>
+        <v>965195</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>891955</v>
+        <v>965313</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>894467</v>
+        <v>965401</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>898559</v>
+        <v>966440</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>899179</v>
+        <v>967165</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>900587</v>
+        <v>967686</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>902437</v>
+        <v>970145</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>907796</v>
+        <v>972955</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>909356</v>
+        <v>975260</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>911000</v>
+        <v>976368</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>914520</v>
+        <v>980726</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>915890</v>
+        <v>985040</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>915963</v>
+        <v>989355</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>916223</v>
-      </c>
-    </row>
-    <row r="797" spans="1:1">
-      <c r="A797">
-        <v>921212</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1">
-      <c r="A798">
-        <v>931855</v>
-      </c>
-    </row>
-    <row r="799" spans="1:1">
-      <c r="A799">
-        <v>932340</v>
-      </c>
-    </row>
-    <row r="800" spans="1:1">
-      <c r="A800">
-        <v>934734</v>
-      </c>
-    </row>
-    <row r="801" spans="1:1">
-      <c r="A801">
-        <v>937438</v>
-      </c>
-    </row>
-    <row r="802" spans="1:1">
-      <c r="A802">
-        <v>937538</v>
-      </c>
-    </row>
-    <row r="803" spans="1:1">
-      <c r="A803">
-        <v>938560</v>
-      </c>
-    </row>
-    <row r="804" spans="1:1">
-      <c r="A804">
-        <v>940024</v>
-      </c>
-    </row>
-    <row r="805" spans="1:1">
-      <c r="A805">
-        <v>947270</v>
-      </c>
-    </row>
-    <row r="806" spans="1:1">
-      <c r="A806">
-        <v>951757</v>
-      </c>
-    </row>
-    <row r="807" spans="1:1">
-      <c r="A807">
-        <v>952962</v>
-      </c>
-    </row>
-    <row r="808" spans="1:1">
-      <c r="A808">
-        <v>957121</v>
-      </c>
-    </row>
-    <row r="809" spans="1:1">
-      <c r="A809">
-        <v>957477</v>
-      </c>
-    </row>
-    <row r="810" spans="1:1">
-      <c r="A810">
-        <v>957557</v>
-      </c>
-    </row>
-    <row r="811" spans="1:1">
-      <c r="A811">
-        <v>957630</v>
-      </c>
-    </row>
-    <row r="812" spans="1:1">
-      <c r="A812">
-        <v>957936</v>
-      </c>
-    </row>
-    <row r="813" spans="1:1">
-      <c r="A813">
-        <v>958185</v>
-      </c>
-    </row>
-    <row r="814" spans="1:1">
-      <c r="A814">
-        <v>958218</v>
-      </c>
-    </row>
-    <row r="815" spans="1:1">
-      <c r="A815">
-        <v>958897</v>
-      </c>
-    </row>
-    <row r="816" spans="1:1">
-      <c r="A816">
-        <v>959606</v>
-      </c>
-    </row>
-    <row r="817" spans="1:1">
-      <c r="A817">
-        <v>960356</v>
-      </c>
-    </row>
-    <row r="818" spans="1:1">
-      <c r="A818">
-        <v>960641</v>
-      </c>
-    </row>
-    <row r="819" spans="1:1">
-      <c r="A819">
-        <v>961661</v>
-      </c>
-    </row>
-    <row r="820" spans="1:1">
-      <c r="A820">
-        <v>961704</v>
-      </c>
-    </row>
-    <row r="821" spans="1:1">
-      <c r="A821">
-        <v>962032</v>
-      </c>
-    </row>
-    <row r="822" spans="1:1">
-      <c r="A822">
-        <v>962080</v>
-      </c>
-    </row>
-    <row r="823" spans="1:1">
-      <c r="A823">
-        <v>962168</v>
-      </c>
-    </row>
-    <row r="824" spans="1:1">
-      <c r="A824">
-        <v>962401</v>
-      </c>
-    </row>
-    <row r="825" spans="1:1">
-      <c r="A825">
-        <v>962432</v>
-      </c>
-    </row>
-    <row r="826" spans="1:1">
-      <c r="A826">
-        <v>962759</v>
-      </c>
-    </row>
-    <row r="827" spans="1:1">
-      <c r="A827">
-        <v>962815</v>
-      </c>
-    </row>
-    <row r="828" spans="1:1">
-      <c r="A828">
-        <v>962839</v>
-      </c>
-    </row>
-    <row r="829" spans="1:1">
-      <c r="A829">
-        <v>964137</v>
-      </c>
-    </row>
-    <row r="830" spans="1:1">
-      <c r="A830">
-        <v>964142</v>
-      </c>
-    </row>
-    <row r="831" spans="1:1">
-      <c r="A831">
-        <v>964159</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1">
-      <c r="A832">
-        <v>964163</v>
-      </c>
-    </row>
-    <row r="833" spans="1:1">
-      <c r="A833">
-        <v>964169</v>
-      </c>
-    </row>
-    <row r="834" spans="1:1">
-      <c r="A834">
-        <v>964549</v>
-      </c>
-    </row>
-    <row r="835" spans="1:1">
-      <c r="A835">
-        <v>964898</v>
-      </c>
-    </row>
-    <row r="836" spans="1:1">
-      <c r="A836">
-        <v>965195</v>
-      </c>
-    </row>
-    <row r="837" spans="1:1">
-      <c r="A837">
-        <v>965313</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1">
-      <c r="A838">
-        <v>965401</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1">
-      <c r="A839">
-        <v>966440</v>
-      </c>
-    </row>
-    <row r="840" spans="1:1">
-      <c r="A840">
-        <v>967165</v>
-      </c>
-    </row>
-    <row r="841" spans="1:1">
-      <c r="A841">
-        <v>967686</v>
-      </c>
-    </row>
-    <row r="842" spans="1:1">
-      <c r="A842">
-        <v>970145</v>
-      </c>
-    </row>
-    <row r="843" spans="1:1">
-      <c r="A843">
-        <v>972955</v>
+        <v>991482</v>
       </c>
     </row>
   </sheetData>
